--- a/4_classification&evaluation/output/evaluation_analysis.xlsx
+++ b/4_classification&evaluation/output/evaluation_analysis.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\Documents\uni\anforderungsklassifizierung\4_classification&amp;evaluation\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1987EA49-8C90-483A-B865-6D0C87B1E521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E9F0D52-2975-4D08-AFCE-B234AB7A92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9114B9EE-7726-4138-8D9C-6E7713038318}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{9114B9EE-7726-4138-8D9C-6E7713038318}"/>
   </bookViews>
   <sheets>
     <sheet name="F1" sheetId="3" r:id="rId1"/>
     <sheet name="F1 Analysis" sheetId="4" r:id="rId2"/>
     <sheet name="F1 ANOVA" sheetId="5" r:id="rId3"/>
+    <sheet name="F1 Tuckey" sheetId="6" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="57">
   <si>
     <t>kNN</t>
   </si>
@@ -161,11 +163,65 @@
   <si>
     <t>Chi^2 + PCA</t>
   </si>
+  <si>
+    <t>BoW + /</t>
+  </si>
+  <si>
+    <t>BoW + Chi^2</t>
+  </si>
+  <si>
+    <t>BoW + Chi^2 + PCA</t>
+  </si>
+  <si>
+    <t>TUKEY HSD: Two Factor Anova w/o Replications</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std err</t>
+  </si>
+  <si>
+    <t>q-crit</t>
+  </si>
+  <si>
+    <t>mean-crit</t>
+  </si>
+  <si>
+    <t>Q TEST</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>group 1</t>
+  </si>
+  <si>
+    <t>group 2</t>
+  </si>
+  <si>
+    <t>q-stat</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>Cohen d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;\-0;&quot;&quot;;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,6 +242,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -210,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -407,11 +464,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -419,22 +516,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -453,6 +536,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -462,17 +554,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1661,7 +1802,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2210,16 +2351,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2841,7 +2982,11 @@
       <sheetName val="T4"/>
     </sheetNames>
     <definedNames>
+      <definedName name="dfWF"/>
       <definedName name="ExtractUnique"/>
+      <definedName name="MSWF"/>
+      <definedName name="QCRIT"/>
+      <definedName name="QDIST"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3194,84 +3339,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D7BA88-6F32-4F0F-8A4C-07FFE79F6BAE}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="J1" s="26" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="J2" s="27" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="J2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="27" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3279,7 +3424,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B4">
@@ -3310,32 +3455,32 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f>AVERAGE(B4:B8)</f>
+        <f t="shared" ref="J4:O4" si="0">AVERAGE(B4:B8)</f>
         <v>0.61091025018216327</v>
       </c>
       <c r="K4">
-        <f>AVERAGE(C4:C8)</f>
+        <f t="shared" si="0"/>
         <v>0.67708654294252502</v>
       </c>
       <c r="L4">
-        <f>AVERAGE(D4:D8)</f>
+        <f t="shared" si="0"/>
         <v>0.67549918183695445</v>
       </c>
       <c r="M4">
-        <f>AVERAGE(E4:E8)</f>
+        <f t="shared" si="0"/>
         <v>0.79156773976772699</v>
       </c>
       <c r="N4">
-        <f>AVERAGE(F4:F8)</f>
+        <f t="shared" si="0"/>
         <v>0.71087783363187418</v>
       </c>
       <c r="O4">
-        <f>AVERAGE(G4:G8)</f>
+        <f t="shared" si="0"/>
         <v>0.69779959827247151</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
+      <c r="A5" s="18"/>
       <c r="B5">
         <f>[1]Sheet1!E2</f>
         <v>0.59143979938244384</v>
@@ -3364,32 +3509,32 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <f>AVERAGE(B9:B13)</f>
+        <f t="shared" ref="J5:O5" si="1">AVERAGE(B9:B13)</f>
         <v>0.80081341541129736</v>
       </c>
       <c r="K5">
-        <f>AVERAGE(C9:C13)</f>
+        <f t="shared" si="1"/>
         <v>0.80893053731024478</v>
       </c>
       <c r="L5">
-        <f>AVERAGE(D9:D13)</f>
+        <f t="shared" si="1"/>
         <v>0.79932436198669954</v>
       </c>
       <c r="M5">
-        <f>AVERAGE(E9:E13)</f>
+        <f t="shared" si="1"/>
         <v>0.83071712125800745</v>
       </c>
       <c r="N5">
-        <f>AVERAGE(F9:F13)</f>
+        <f t="shared" si="1"/>
         <v>0.84751420283884649</v>
       </c>
       <c r="O5">
-        <f>AVERAGE(G9:G13)</f>
+        <f t="shared" si="1"/>
         <v>0.84774635118612207</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
+      <c r="A6" s="18"/>
       <c r="B6">
         <f>[1]Sheet1!F2</f>
         <v>0.58523998167461655</v>
@@ -3418,32 +3563,32 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <f>AVERAGE(B14:B18)</f>
+        <f t="shared" ref="J6:O6" si="2">AVERAGE(B14:B18)</f>
         <v>0.84074442175686115</v>
       </c>
       <c r="K6">
-        <f>AVERAGE(C14:C18)</f>
+        <f t="shared" si="2"/>
         <v>0.84520300916564428</v>
       </c>
       <c r="L6">
-        <f>AVERAGE(D14:D18)</f>
+        <f t="shared" si="2"/>
         <v>0.84134004010855024</v>
       </c>
       <c r="M6">
-        <f>AVERAGE(E14:E18)</f>
+        <f t="shared" si="2"/>
         <v>0.82968215789103295</v>
       </c>
       <c r="N6">
-        <f>AVERAGE(F14:F18)</f>
+        <f t="shared" si="2"/>
         <v>0.8366381363445029</v>
       </c>
       <c r="O6">
-        <f>AVERAGE(G14:G18)</f>
+        <f t="shared" si="2"/>
         <v>0.83897264151605033</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
+      <c r="A7" s="18"/>
       <c r="B7">
         <f>[1]Sheet1!G2</f>
         <v>0.58129545462534316</v>
@@ -3497,7 +3642,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="10"/>
+      <c r="A8" s="19"/>
       <c r="B8">
         <f>[1]Sheet1!H2</f>
         <v>0.72528678326640983</v>
@@ -3526,32 +3671,32 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <f>AVERAGE(B24:B28)</f>
+        <f t="shared" ref="J8:O8" si="3">AVERAGE(B24:B28)</f>
         <v>0.79929554214048315</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:O8" si="0">AVERAGE(C24:C28)</f>
+        <f t="shared" si="3"/>
         <v>0.8166684721988402</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.7266662225643733</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.81232686680582877</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.80864702132081556</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.81652921999121764</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B9">
@@ -3582,32 +3727,32 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <f>AVERAGE(B29:B33)</f>
+        <f t="shared" ref="J9:O9" si="4">AVERAGE(B29:B33)</f>
         <v>0.84194133574598207</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:O9" si="1">AVERAGE(C29:C33)</f>
+        <f t="shared" si="4"/>
         <v>0.85960243250523105</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.83161398431726785</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.84356537356382066</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.87507605785509368</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.84571900014811874</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="9"/>
+      <c r="A10" s="18"/>
       <c r="B10">
         <f>[1]Sheet1!E3</f>
         <v>0.77460186169863587</v>
@@ -3634,7 +3779,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="9"/>
+      <c r="A11" s="18"/>
       <c r="B11">
         <f>[1]Sheet1!F3</f>
         <v>0.80722197106933524</v>
@@ -3661,7 +3806,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
+      <c r="A12" s="18"/>
       <c r="B12">
         <f>[1]Sheet1!G3</f>
         <v>0.77268325985871233</v>
@@ -3686,17 +3831,17 @@
         <f>[1]Sheet1!AP3</f>
         <v>0.84881603261980998</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
+      <c r="A13" s="19"/>
       <c r="B13">
         <f>[1]Sheet1!H3</f>
         <v>0.84987251978999923</v>
@@ -3721,19 +3866,19 @@
         <f>[1]Sheet1!AQ3</f>
         <v>0.88122052442935295</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="23" t="s">
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B14">
@@ -3760,19 +3905,19 @@
         <f>[1]Sheet1!AM4</f>
         <v>0.79718655867774324</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -3780,7 +3925,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
+      <c r="A15" s="18"/>
       <c r="B15">
         <f>[1]Sheet1!E4</f>
         <v>0.78742762613730355</v>
@@ -3809,32 +3954,32 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <f>_xlfn.STDEV.P(B4:B8)</f>
+        <f t="shared" ref="J15:O15" si="5">_xlfn.STDEV.P(B4:B8)</f>
         <v>5.7561990341961078E-2</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15:O15" si="2">_xlfn.STDEV.P(C4:C8)</f>
+        <f t="shared" si="5"/>
         <v>2.8737570550821288E-2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.1576178987247548E-2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.7400296540463729E-2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.7076552896132466E-2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.3503383696078854E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
+      <c r="A16" s="18"/>
       <c r="B16">
         <f>[1]Sheet1!F4</f>
         <v>0.87126169435167733</v>
@@ -3863,32 +4008,32 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <f>_xlfn.STDEV.P(B9:B13)</f>
+        <f t="shared" ref="J16:O16" si="6">_xlfn.STDEV.P(B9:B13)</f>
         <v>2.8026716798964263E-2</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:O16" si="3">_xlfn.STDEV.P(C9:C13)</f>
+        <f t="shared" si="6"/>
         <v>4.9923395105736568E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.1062547693020516E-2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1246916126000122E-2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.3451784120424641E-2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.4600327275163248E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
+      <c r="A17" s="18"/>
       <c r="B17">
         <f>[1]Sheet1!G4</f>
         <v>0.79468968119222794</v>
@@ -3917,32 +4062,32 @@
         <v>2</v>
       </c>
       <c r="J17">
-        <f>_xlfn.STDEV.P(B14:B18)</f>
+        <f t="shared" ref="J17:O17" si="7">_xlfn.STDEV.P(B14:B18)</f>
         <v>4.7455505084118894E-2</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:O17" si="4">_xlfn.STDEV.P(C14:C18)</f>
+        <f t="shared" si="7"/>
         <v>2.3705250908797985E-2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.5930200771241198E-2</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.8618762381606303E-2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.0985919400133512E-2</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.9107210720397747E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
+      <c r="A18" s="19"/>
       <c r="B18">
         <f>[1]Sheet1!H4</f>
         <v>0.9138668133160659</v>
@@ -3975,7 +4120,7 @@
         <v>3.0545989302824938E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:O18" si="5">_xlfn.STDEV.P(C19:C23)</f>
+        <f>_xlfn.STDEV.P(C19:C23)</f>
         <v>3.6775736439991422E-2</v>
       </c>
       <c r="L18" t="str">
@@ -3983,11 +4128,11 @@
         <v>-</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f>_xlfn.STDEV.P(E19:E23)</f>
         <v>3.5015952223452267E-2</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
+        <f>_xlfn.STDEV.P(F19:F23)</f>
         <v>2.8958019304862737E-2</v>
       </c>
       <c r="O18" t="str">
@@ -3996,7 +4141,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B19">
@@ -4027,32 +4172,32 @@
         <v>4</v>
       </c>
       <c r="J19">
-        <f>_xlfn.STDEV.P(B24:B28)</f>
+        <f t="shared" ref="J19:O19" si="8">_xlfn.STDEV.P(B24:B28)</f>
         <v>2.4569173820217848E-2</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:O19" si="6">_xlfn.STDEV.P(C24:C28)</f>
+        <f t="shared" si="8"/>
         <v>2.393855611041602E-2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4642966653368341E-2</v>
       </c>
       <c r="M19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.586530967901127E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2629513858011175E-2</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.8841373771204628E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
+      <c r="A20" s="18"/>
       <c r="B20">
         <f>[1]Sheet1!E5</f>
         <v>0.76467689449593468</v>
@@ -4081,32 +4226,32 @@
         <v>5</v>
       </c>
       <c r="J20">
-        <f>_xlfn.STDEV.P(B29:B33)</f>
+        <f t="shared" ref="J20:O20" si="9">_xlfn.STDEV.P(B29:B33)</f>
         <v>5.1477817098896712E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:O20" si="7">_xlfn.STDEV.P(C29:C33)</f>
+        <f t="shared" si="9"/>
         <v>3.1927700708366154E-2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.5677966314735592E-2</v>
       </c>
       <c r="M20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.9458469083306254E-2</v>
       </c>
       <c r="N20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.1043286053692674E-2</v>
       </c>
       <c r="O20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0987503685848281E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A21" s="9"/>
+      <c r="A21" s="18"/>
       <c r="B21">
         <f>[1]Sheet1!F5</f>
         <v>0.83908541973058104</v>
@@ -4133,7 +4278,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" s="9"/>
+      <c r="A22" s="18"/>
       <c r="B22">
         <f>[1]Sheet1!G5</f>
         <v>0.79598018508198465</v>
@@ -4160,7 +4305,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
+      <c r="A23" s="19"/>
       <c r="B23">
         <f>[1]Sheet1!H5</f>
         <v>0.81558666448309913</v>
@@ -4187,7 +4332,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B24">
@@ -4216,7 +4361,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="9"/>
+      <c r="A25" s="18"/>
       <c r="B25">
         <f>[1]Sheet1!E6</f>
         <v>0.77891832179794407</v>
@@ -4243,7 +4388,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
+      <c r="A26" s="18"/>
       <c r="B26">
         <f>[1]Sheet1!F6</f>
         <v>0.81799641901509479</v>
@@ -4270,7 +4415,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A27" s="9"/>
+      <c r="A27" s="18"/>
       <c r="B27">
         <f>[1]Sheet1!G6</f>
         <v>0.78540460513895038</v>
@@ -4297,7 +4442,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" s="10"/>
+      <c r="A28" s="19"/>
       <c r="B28">
         <f>[1]Sheet1!H6</f>
         <v>0.83821709628161245</v>
@@ -4324,7 +4469,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B29">
@@ -4353,7 +4498,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A30" s="9"/>
+      <c r="A30" s="18"/>
       <c r="B30">
         <f>[1]Sheet1!E7</f>
         <v>0.75663396843362896</v>
@@ -4380,7 +4525,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A31" s="9"/>
+      <c r="A31" s="18"/>
       <c r="B31">
         <f>[1]Sheet1!F7</f>
         <v>0.88120806911129468</v>
@@ -4407,7 +4552,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A32" s="9"/>
+      <c r="A32" s="18"/>
       <c r="B32">
         <f>[1]Sheet1!G7</f>
         <v>0.81719246976607529</v>
@@ -4434,7 +4579,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="10"/>
+      <c r="A33" s="19"/>
       <c r="B33">
         <f>[1]Sheet1!H7</f>
         <v>0.90295367714722563</v>
@@ -4529,31 +4674,30 @@
     <col min="11" max="11" width="16.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="5" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5557,15 +5701,15 @@
         <v>0.82534514582770557</v>
       </c>
       <c r="J23">
-        <f>IFERROR(AVERAGE(D23:H23),"-")</f>
+        <f t="shared" ref="J23:J37" si="3">IFERROR(AVERAGE(D23:H23),"-")</f>
         <v>0.8325940159128592</v>
       </c>
       <c r="K23">
-        <f>IFERROR(_xlfn.STDEV.P(D23:H23),"-")</f>
+        <f t="shared" ref="K23:K37" si="4">IFERROR(_xlfn.STDEV.P(D23:H23),"-")</f>
         <v>3.5015952223452267E-2</v>
       </c>
       <c r="L23">
-        <f>IFERROR(VAR(D23:H23),"-")</f>
+        <f t="shared" ref="L23:L37" si="5">IFERROR(VAR(D23:H23),"-")</f>
         <v>1.5326461376438643E-3</v>
       </c>
     </row>
@@ -5603,15 +5747,15 @@
         <v>0.85785340187178782</v>
       </c>
       <c r="J24">
-        <f>IFERROR(AVERAGE(D24:H24),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.84503433472225464</v>
       </c>
       <c r="K24">
-        <f>IFERROR(_xlfn.STDEV.P(D24:H24),"-")</f>
+        <f t="shared" si="4"/>
         <v>2.8958019304862737E-2</v>
       </c>
       <c r="L24">
-        <f>IFERROR(VAR(D24:H24),"-")</f>
+        <f t="shared" si="5"/>
         <v>1.0482086025760035E-3</v>
       </c>
     </row>
@@ -5649,15 +5793,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <f>IFERROR(AVERAGE(D25:H25),"-")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>IFERROR(_xlfn.STDEV.P(D25:H25),"-")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>IFERROR(VAR(D25:H25),"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5695,15 +5839,15 @@
         <v>0.83821709628161245</v>
       </c>
       <c r="J26">
-        <f>IFERROR(AVERAGE(D26:H26),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.79929554214048315</v>
       </c>
       <c r="K26">
-        <f>IFERROR(_xlfn.STDEV.P(D26:H26),"-")</f>
+        <f t="shared" si="4"/>
         <v>2.4569173820217848E-2</v>
       </c>
       <c r="L26">
-        <f>IFERROR(VAR(D26:H26),"-")</f>
+        <f t="shared" si="5"/>
         <v>7.5455537776009758E-4</v>
       </c>
     </row>
@@ -5741,15 +5885,15 @@
         <v>0.84978310034574112</v>
       </c>
       <c r="J27">
-        <f>IFERROR(AVERAGE(D27:H27),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.8166684721988402</v>
       </c>
       <c r="K27">
-        <f>IFERROR(_xlfn.STDEV.P(D27:H27),"-")</f>
+        <f t="shared" si="4"/>
         <v>2.393855611041602E-2</v>
       </c>
       <c r="L27">
-        <f>IFERROR(VAR(D27:H27),"-")</f>
+        <f t="shared" si="5"/>
         <v>7.1631808581442032E-4</v>
       </c>
     </row>
@@ -5787,15 +5931,15 @@
         <v>0.76301618508075286</v>
       </c>
       <c r="J28">
-        <f>IFERROR(AVERAGE(D28:H28),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.7266662225643733</v>
       </c>
       <c r="K28">
-        <f>IFERROR(_xlfn.STDEV.P(D28:H28),"-")</f>
+        <f t="shared" si="4"/>
         <v>2.4642966653368341E-2</v>
       </c>
       <c r="L28">
-        <f>IFERROR(VAR(D28:H28),"-")</f>
+        <f t="shared" si="5"/>
         <v>7.5909475684878013E-4</v>
       </c>
     </row>
@@ -5833,15 +5977,15 @@
         <v>0.85977774266015672</v>
       </c>
       <c r="J29">
-        <f>IFERROR(AVERAGE(D29:H29),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.81232686680582877</v>
       </c>
       <c r="K29">
-        <f>IFERROR(_xlfn.STDEV.P(D29:H29),"-")</f>
+        <f t="shared" si="4"/>
         <v>2.586530967901127E-2</v>
       </c>
       <c r="L29">
-        <f>IFERROR(VAR(D29:H29),"-")</f>
+        <f t="shared" si="5"/>
         <v>8.362678059889426E-4</v>
       </c>
     </row>
@@ -5879,15 +6023,15 @@
         <v>0.86002918478537382</v>
       </c>
       <c r="J30">
-        <f>IFERROR(AVERAGE(D30:H30),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.80864702132081556</v>
       </c>
       <c r="K30">
-        <f>IFERROR(_xlfn.STDEV.P(D30:H30),"-")</f>
+        <f t="shared" si="4"/>
         <v>3.2629513858011175E-2</v>
       </c>
       <c r="L30">
-        <f>IFERROR(VAR(D30:H30),"-")</f>
+        <f t="shared" si="5"/>
         <v>1.3308564682626791E-3</v>
       </c>
     </row>
@@ -5925,15 +6069,15 @@
         <v>0.88141241878456678</v>
       </c>
       <c r="J31">
-        <f>IFERROR(AVERAGE(D31:H31),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.81652921999121764</v>
       </c>
       <c r="K31">
-        <f>IFERROR(_xlfn.STDEV.P(D31:H31),"-")</f>
+        <f t="shared" si="4"/>
         <v>4.8841373771204628E-2</v>
       </c>
       <c r="L31">
-        <f>IFERROR(VAR(D31:H31),"-")</f>
+        <f t="shared" si="5"/>
         <v>2.9818497398231441E-3</v>
       </c>
     </row>
@@ -5971,15 +6115,15 @@
         <v>0.90295367714722563</v>
       </c>
       <c r="J32">
-        <f>IFERROR(AVERAGE(D32:H32),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.84194133574598207</v>
       </c>
       <c r="K32">
-        <f>IFERROR(_xlfn.STDEV.P(D32:H32),"-")</f>
+        <f t="shared" si="4"/>
         <v>5.1477817098896712E-2</v>
       </c>
       <c r="L32">
-        <f>IFERROR(VAR(D32:H32),"-")</f>
+        <f t="shared" si="5"/>
         <v>3.3124570665843283E-3</v>
       </c>
     </row>
@@ -6017,15 +6161,15 @@
         <v>0.91348862912592255</v>
       </c>
       <c r="J33">
-        <f>IFERROR(AVERAGE(D33:H33),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.85960243250523105</v>
       </c>
       <c r="K33">
-        <f>IFERROR(_xlfn.STDEV.P(D33:H33),"-")</f>
+        <f t="shared" si="4"/>
         <v>3.1927700708366154E-2</v>
       </c>
       <c r="L33">
-        <f>IFERROR(VAR(D33:H33),"-")</f>
+        <f t="shared" si="5"/>
         <v>1.2742225906537557E-3</v>
       </c>
     </row>
@@ -6063,15 +6207,15 @@
         <v>0.91459775840081436</v>
       </c>
       <c r="J34">
-        <f>IFERROR(AVERAGE(D34:H34),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.83161398431726785</v>
       </c>
       <c r="K34">
-        <f>IFERROR(_xlfn.STDEV.P(D34:H34),"-")</f>
+        <f t="shared" si="4"/>
         <v>4.5677966314735592E-2</v>
       </c>
       <c r="L34">
-        <f>IFERROR(VAR(D34:H34),"-")</f>
+        <f t="shared" si="5"/>
         <v>2.6080957583126492E-3</v>
       </c>
     </row>
@@ -6109,15 +6253,15 @@
         <v>0.88117435290610169</v>
       </c>
       <c r="J35">
-        <f>IFERROR(AVERAGE(D35:H35),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.84356537356382066</v>
       </c>
       <c r="K35">
-        <f>IFERROR(_xlfn.STDEV.P(D35:H35),"-")</f>
+        <f t="shared" si="4"/>
         <v>3.9458469083306254E-2</v>
       </c>
       <c r="L35">
-        <f>IFERROR(VAR(D35:H35),"-")</f>
+        <f t="shared" si="5"/>
         <v>1.9462134779977946E-3</v>
       </c>
     </row>
@@ -6155,15 +6299,15 @@
         <v>0.92465965541092876</v>
       </c>
       <c r="J36">
-        <f>IFERROR(AVERAGE(D36:H36),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.87507605785509368</v>
       </c>
       <c r="K36">
-        <f>IFERROR(_xlfn.STDEV.P(D36:H36),"-")</f>
+        <f t="shared" si="4"/>
         <v>4.1043286053692674E-2</v>
       </c>
       <c r="L36">
-        <f>IFERROR(VAR(D36:H36),"-")</f>
+        <f t="shared" si="5"/>
         <v>2.1056891626065545E-3</v>
       </c>
     </row>
@@ -6201,15 +6345,15 @@
         <v>0.8820028739903869</v>
       </c>
       <c r="J37">
-        <f>IFERROR(AVERAGE(D37:H37),"-")</f>
+        <f t="shared" si="3"/>
         <v>0.84571900014811874</v>
       </c>
       <c r="K37">
-        <f>IFERROR(_xlfn.STDEV.P(D37:H37),"-")</f>
+        <f t="shared" si="4"/>
         <v>3.0987503685848281E-2</v>
       </c>
       <c r="L37">
-        <f>IFERROR(VAR(D37:H37),"-")</f>
+        <f t="shared" si="5"/>
         <v>1.2002817308505759E-3</v>
       </c>
     </row>
@@ -6226,7 +6370,7 @@
   <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6240,13 +6384,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
@@ -6260,59 +6404,58 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="str">
+      <c r="A4" s="7" t="str">
         <f t="array" ref="A4:A9">[2]!ExtractUnique('F1 Analysis'!A2:A37)</f>
         <v>kNN</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="13">
-        <f>SUMIF($A$51:$A$86,A4,$D$51:$D$86)</f>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D9" si="0">SUMIF($A$51:$A$86,A4,$D$51:$D$86)</f>
         <v>30</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="8">
         <f t="array" ref="E4">IF(D4=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A4,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.69395685777228577</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="9">
         <f t="array" ref="F4">IF(D4&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A4,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>4.9683332757475638E-3</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="str">
+      <c r="A5" s="10" t="str">
         <v>SVM</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16">
-        <f t="shared" ref="D5:D9" si="0">SUMIF($A$51:$A$86,A5,$D$51:$D$86)</f>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <f t="array" ref="E5">IF(D5=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A5,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.82250766499853611</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="11">
         <f t="array" ref="F5">IF(D5&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A5,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>2.0401534224778347E-3</v>
       </c>
@@ -6328,7 +6471,7 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <f>I5/J5</f>
+        <f t="shared" ref="K5:K13" si="1">I5/J5</f>
         <v>0.39251905558982964</v>
       </c>
       <c r="L5">
@@ -6345,20 +6488,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="str">
+      <c r="A6" s="10" t="str">
         <v>LR</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16">
+      <c r="C6" s="11"/>
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <f t="array" ref="E6">IF(D6=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A6,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.83876340113044034</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="11">
         <f t="array" ref="F6">IF(D6&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A6,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>1.6942719527782489E-3</v>
       </c>
@@ -6374,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <f>I6/J6</f>
+        <f t="shared" si="1"/>
         <v>3.1523687989522396E-2</v>
       </c>
       <c r="L6">
@@ -6391,20 +6533,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="str">
+      <c r="A7" s="10" t="str">
         <v>NB</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <f t="array" ref="E7">IF(D7=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A7,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.55609700112981963</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <f t="array" ref="F7">IF(D7&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A7,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.16082548550294645</v>
       </c>
@@ -6420,7 +6561,7 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <f>I7/J7</f>
+        <f t="shared" si="1"/>
         <v>0.44726475888377937</v>
       </c>
       <c r="L7">
@@ -6437,20 +6578,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="str">
+      <c r="A8" s="10" t="str">
         <v>RF</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16">
+      <c r="C8" s="11"/>
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <f t="array" ref="E8">IF(D8=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A8,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.79668889083692629</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="11">
         <f t="array" ref="F8">IF(D8&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A8,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>2.0678427586286979E-3</v>
       </c>
@@ -6466,7 +6606,7 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <f>I8/J8</f>
+        <f t="shared" si="1"/>
         <v>7.1160879685347638E-3</v>
       </c>
       <c r="L8">
@@ -6483,20 +6623,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="str">
+      <c r="A9" s="10" t="str">
         <v>Ensemble</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16">
+      <c r="C9" s="11"/>
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <f t="array" ref="E9">IF(D9=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A9,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.84958636402258569</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="11">
         <f t="array" ref="F9">IF(D9&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A9,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>1.9207371841711753E-3</v>
       </c>
@@ -6512,7 +6651,7 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <f>I9/J9</f>
+        <f t="shared" si="1"/>
         <v>0.37632359176481128</v>
       </c>
       <c r="L9">
@@ -6529,21 +6668,21 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
-      <c r="B10" s="3" t="str">
+      <c r="A10" s="10"/>
+      <c r="B10" t="str">
         <f t="array" ref="B10:B11">[2]!ExtractUnique('F1 Analysis'!B2:B37)</f>
         <v>BoW</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16">
+      <c r="C10" s="11"/>
+      <c r="D10" s="10">
         <f>SUMIF($B$51:$B$86,B10,$D$51:$D$86)</f>
         <v>90</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <f t="array" ref="E10">IF(D10=0,"",AVERAGE(IF('F1 Analysis'!$B$2:$B$37=B10,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.74636630035094009</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="11">
         <f t="array" ref="F10">IF(D10&lt;2,"",VAR(IF('F1 Analysis'!$B$2:$B$37=B10,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>3.937860793494867E-2</v>
       </c>
@@ -6559,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="K10">
-        <f>I10/J10</f>
+        <f t="shared" si="1"/>
         <v>2.8368998689484171E-3</v>
       </c>
       <c r="L10">
@@ -6576,20 +6715,20 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="16"/>
-      <c r="B11" s="3" t="str">
+      <c r="A11" s="10"/>
+      <c r="B11" t="str">
         <v>Tf-Idf</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16">
+      <c r="C11" s="11"/>
+      <c r="D11" s="10">
         <f>SUMIF($B$51:$B$86,B11,$D$51:$D$86)</f>
         <v>90</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <f t="array" ref="E11">IF(D11=0,"",AVERAGE(IF('F1 Analysis'!$B$2:$B$37=B11,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.77283375961259126</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="11">
         <f t="array" ref="F11">IF(D11&lt;2,"",VAR(IF('F1 Analysis'!$B$2:$B$37=B11,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>3.8858015534325198E-2</v>
       </c>
@@ -6605,7 +6744,7 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <f>I11/J11</f>
+        <f t="shared" si="1"/>
         <v>4.8071057022615491E-3</v>
       </c>
       <c r="L11">
@@ -6622,21 +6761,20 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="16"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="17" t="str">
+      <c r="A12" s="10"/>
+      <c r="C12" s="11" t="str">
         <f t="array" ref="C12:C14">[2]!ExtractUnique('F1 Analysis'!C2:C37)</f>
         <v>/</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="10">
         <f>SUMIF($C$51:$C$86,C12,$D$51:$D$86)</f>
         <v>60</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <f t="array" ref="E12">IF(D12=0,"",AVERAGE(IF('F1 Analysis'!$C$2:$C$37=C12,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.8039318053136395</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="11">
         <f t="array" ref="F12">IF(D12&lt;2,"",VAR(IF('F1 Analysis'!$C$2:$C$37=C12,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>5.317668364681386E-3</v>
       </c>
@@ -6652,1826 +6790,1809 @@
         <v>144</v>
       </c>
       <c r="K12">
-        <f>I12/J12</f>
+        <f t="shared" si="1"/>
         <v>1.7595380472041791E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="16"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="17" t="str">
+      <c r="A13" s="10"/>
+      <c r="C13" s="11" t="str">
         <v>Chi^2</v>
       </c>
-      <c r="D13" s="16">
-        <f t="shared" ref="D13:D14" si="1">SUMIF($C$51:$C$86,C13,$D$51:$D$86)</f>
+      <c r="D13" s="10">
+        <f>SUMIF($C$51:$C$86,C13,$D$51:$D$86)</f>
         <v>60</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <f t="array" ref="E13">IF(D13=0,"",AVERAGE(IF('F1 Analysis'!$C$2:$C$37=C13,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.8147674011376721</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="11">
         <f t="array" ref="F13">IF(D13&lt;2,"",VAR(IF('F1 Analysis'!$C$2:$C$37=C13,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>4.6120420363748096E-3</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="16">
         <f>F87*J13</f>
         <v>6.9945831767549302</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="16">
         <f>D87-1</f>
         <v>179</v>
       </c>
-      <c r="K13" s="22">
-        <f>I13/J13</f>
+      <c r="K13" s="16">
+        <f t="shared" si="1"/>
         <v>3.9075883669021955E-2</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="str">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="str">
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D14" s="18">
-        <f t="shared" si="1"/>
+      <c r="D14" s="12">
+        <f>SUMIF($C$51:$C$86,C14,$D$51:$D$86)</f>
         <v>60</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <f t="array" ref="E14">IF(D14=0,"",AVERAGE(IF('F1 Analysis'!$C$2:$C$37=C14,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>0.66010088349398566</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="14">
         <f t="array" ref="F14">IF(D14&lt;2,"",VAR(IF('F1 Analysis'!$C$2:$C$37=C14,'F1 Analysis'!$D$2:$H$37,"")))</f>
         <v>9.3461029581779639E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="str">
+      <c r="A15" s="7" t="str">
         <f>$A$4</f>
         <v>kNN</v>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="8" t="str">
         <f>$B10</f>
         <v>BoW</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13">
+      <c r="C15" s="9"/>
+      <c r="D15" s="7">
         <f>SUMIFS($D$51:$D$86,$A$51:$A$86,A15,$B$51:$B$86,B15)</f>
         <v>15</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="8">
         <f t="array" ref="E15">IF(D15=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A15,IF('F1 Analysis'!$B$2:$B$37=B15,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.65449865832054754</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="9">
         <f t="array" ref="F15">IF(D15&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A15,IF('F1 Analysis'!$B$2:$B$37=B15,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>3.4466131342547634E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="str">
+      <c r="A16" s="10" t="str">
         <f>$A$4</f>
         <v>kNN</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" t="str">
         <f>$B11</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16">
+      <c r="C16" s="11"/>
+      <c r="D16" s="10">
         <f t="shared" ref="D16:D26" si="2">SUMIFS($D$51:$D$86,$A$51:$A$86,A16,$B$51:$B$86,B16)</f>
         <v>15</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <f t="array" ref="E16">IF(D16=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A16,IF('F1 Analysis'!$B$2:$B$37=B16,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.73341505722402422</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="11">
         <f t="array" ref="F16">IF(D16&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A16,IF('F1 Analysis'!$B$2:$B$37=B16,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>3.5086139998512758E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="str">
+      <c r="A17" s="10" t="str">
         <f>$A$5</f>
         <v>SVM</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" t="str">
         <f>$B10</f>
         <v>BoW</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16">
+      <c r="C17" s="11"/>
+      <c r="D17" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <f t="array" ref="E17">IF(D17=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A17,IF('F1 Analysis'!$B$2:$B$37=B17,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.80302277156941393</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="11">
         <f t="array" ref="F17">IF(D17&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A17,IF('F1 Analysis'!$B$2:$B$37=B17,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>2.1209597122993852E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="16" t="str">
+      <c r="A18" s="10" t="str">
         <f>$A$5</f>
         <v>SVM</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" t="str">
         <f>$B11</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16">
+      <c r="C18" s="11"/>
+      <c r="D18" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <f t="array" ref="E18">IF(D18=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A18,IF('F1 Analysis'!$B$2:$B$37=B18,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.84199255842765874</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="11">
         <f t="array" ref="F18">IF(D18&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A18,IF('F1 Analysis'!$B$2:$B$37=B18,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.2915129372384363E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="str">
+      <c r="A19" s="10" t="str">
         <f>$A$6</f>
         <v>LR</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" t="str">
         <f>$B10</f>
         <v>BoW</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <f t="array" ref="E19">IF(D19=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A19,IF('F1 Analysis'!$B$2:$B$37=B19,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.84242915701035193</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="11">
         <f t="array" ref="F19">IF(D19&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A19,IF('F1 Analysis'!$B$2:$B$37=B19,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.4702364197068456E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="16" t="str">
+      <c r="A20" s="10" t="str">
         <f>$A$6</f>
         <v>LR</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" t="str">
         <f>$B11</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16">
+      <c r="C20" s="11"/>
+      <c r="D20" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <f t="array" ref="E20">IF(D20=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A20,IF('F1 Analysis'!$B$2:$B$37=B20,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.83509764525052865</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <f t="array" ref="F20">IF(D20&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A20,IF('F1 Analysis'!$B$2:$B$37=B20,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>2.0105316978242986E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="str">
+      <c r="A21" s="10" t="str">
         <f>$A$7</f>
         <v>NB</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" t="str">
         <f>$B10</f>
         <v>BoW</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16">
+      <c r="C21" s="11"/>
+      <c r="D21" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <f t="array" ref="E21">IF(D21=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A21,IF('F1 Analysis'!$B$2:$B$37=B21,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.55298455204793484</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="11">
         <f t="array" ref="F21">IF(D21&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A21,IF('F1 Analysis'!$B$2:$B$37=B21,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.16482671911215505</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="str">
+      <c r="A22" s="10" t="str">
         <f>$A$7</f>
         <v>NB</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" t="str">
         <f>$B11</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16">
+      <c r="C22" s="11"/>
+      <c r="D22" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <f t="array" ref="E22">IF(D22=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A22,IF('F1 Analysis'!$B$2:$B$37=B22,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.55920945021170465</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="11">
         <f t="array" ref="F22">IF(D22&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A22,IF('F1 Analysis'!$B$2:$B$37=B22,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.16829102798833231</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="16" t="str">
+      <c r="A23" s="10" t="str">
         <f>$A$8</f>
         <v>RF</v>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B23" t="str">
         <f>$B10</f>
         <v>BoW</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16">
+      <c r="C23" s="11"/>
+      <c r="D23" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <f t="array" ref="E23">IF(D23=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A23,IF('F1 Analysis'!$B$2:$B$37=B23,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.78087674563456533</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="11">
         <f t="array" ref="F23">IF(D23&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A23,IF('F1 Analysis'!$B$2:$B$37=B23,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>2.2653768368073907E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="16" t="str">
+      <c r="A24" s="10" t="str">
         <f>$A$8</f>
         <v>RF</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B24" t="str">
         <f>$B11</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="16">
+      <c r="C24" s="11"/>
+      <c r="D24" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <f t="array" ref="E24">IF(D24=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A24,IF('F1 Analysis'!$B$2:$B$37=B24,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.81250103603928736</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="11">
         <f t="array" ref="F24">IF(D24&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A24,IF('F1 Analysis'!$B$2:$B$37=B24,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.4822461577080296E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="16" t="str">
+      <c r="A25" s="10" t="str">
         <f>$A$9</f>
         <v>Ensemble</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" t="str">
         <f>$B10</f>
         <v>BoW</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16">
+      <c r="C25" s="11"/>
+      <c r="D25" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <f t="array" ref="E25">IF(D25=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A25,IF('F1 Analysis'!$B$2:$B$37=B25,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.84438591752282699</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="11">
         <f t="array" ref="F25">IF(D25&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A25,IF('F1 Analysis'!$B$2:$B$37=B25,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>2.1987360423290211E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="18" t="str">
+      <c r="A26" s="12" t="str">
         <f>$A$9</f>
         <v>Ensemble</v>
       </c>
-      <c r="B26" s="19" t="str">
+      <c r="B26" s="13" t="str">
         <f>$B11</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18">
+      <c r="C26" s="14"/>
+      <c r="D26" s="12">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="13">
         <f t="array" ref="E26">IF(D26=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A26,IF('F1 Analysis'!$B$2:$B$37=B26,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.85478681052234429</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="14">
         <f t="array" ref="F26">IF(D26&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A26,IF('F1 Analysis'!$B$2:$B$37=B26,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.7219810310323022E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="str">
+      <c r="A27" s="7" t="str">
         <f>$A$4</f>
         <v>kNN</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15" t="str">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="str">
         <f>$C12</f>
         <v>/</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="7">
         <f>SUMIFS($D$51:$D$86,$A$51:$A$86,A27,$C$51:$C$86,C27)</f>
         <v>10</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="8">
         <f t="array" ref="E27">IF(D27=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A27,IF('F1 Analysis'!$C$2:$C$37=C27,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.70123899497494513</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="9">
         <f t="array" ref="F27">IF(D27&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A27,IF('F1 Analysis'!$C$2:$C$37=C27,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.1683738436178735E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="16" t="str">
-        <f t="shared" ref="A28:A29" si="3">$A$4</f>
+      <c r="A28" s="10" t="str">
+        <f>$A$4</f>
         <v>kNN</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="17" t="str">
-        <f t="shared" ref="C28:C29" si="4">$C13</f>
+      <c r="C28" s="11" t="str">
+        <f>$C13</f>
         <v>Chi^2</v>
       </c>
-      <c r="D28" s="16">
-        <f t="shared" ref="D28:D44" si="5">SUMIFS($D$51:$D$86,$A$51:$A$86,A28,$C$51:$C$86,C28)</f>
+      <c r="D28" s="10">
+        <f t="shared" ref="D28:D44" si="3">SUMIFS($D$51:$D$86,$A$51:$A$86,A28,$C$51:$C$86,C28)</f>
         <v>10</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <f t="array" ref="E28">IF(D28=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A28,IF('F1 Analysis'!$C$2:$C$37=C28,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.69398218828719949</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="11">
         <f t="array" ref="F28">IF(D28&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A28,IF('F1 Analysis'!$C$2:$C$37=C28,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.5396913328051029E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="16" t="str">
+      <c r="A29" s="10" t="str">
+        <f>$A$4</f>
+        <v>kNN</v>
+      </c>
+      <c r="C29" s="11" t="str">
+        <f>$C14</f>
+        <v>Chi^2 + PCA</v>
+      </c>
+      <c r="D29" s="10">
         <f t="shared" si="3"/>
-        <v>kNN</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>Chi^2 + PCA</v>
-      </c>
-      <c r="D29" s="16">
-        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <f t="array" ref="E29">IF(D29=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A29,IF('F1 Analysis'!$C$2:$C$37=C29,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.68664939005471293</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="11">
         <f t="array" ref="F29">IF(D29&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A29,IF('F1 Analysis'!$C$2:$C$37=C29,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>2.6673893991842178E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="16" t="str">
+      <c r="A30" s="10" t="str">
         <f>$A$5</f>
         <v>SVM</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="17" t="str">
+      <c r="C30" s="11" t="str">
         <f>$C12</f>
         <v>/</v>
       </c>
-      <c r="D30" s="16">
-        <f t="shared" si="5"/>
+      <c r="D30" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <f t="array" ref="E30">IF(D30=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A30,IF('F1 Analysis'!$C$2:$C$37=C30,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.81576526833465235</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="11">
         <f t="array" ref="F30">IF(D30&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A30,IF('F1 Analysis'!$C$2:$C$37=C30,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.6299559756210659E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="16" t="str">
-        <f t="shared" ref="A31:A32" si="6">$A$5</f>
+      <c r="A31" s="10" t="str">
+        <f>$A$5</f>
         <v>SVM</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="17" t="str">
-        <f t="shared" ref="C31:C32" si="7">$C13</f>
+      <c r="C31" s="11" t="str">
+        <f>$C13</f>
         <v>Chi^2</v>
       </c>
-      <c r="D31" s="16">
-        <f t="shared" si="5"/>
+      <c r="D31" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <f t="array" ref="E31">IF(D31=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A31,IF('F1 Analysis'!$C$2:$C$37=C31,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.82822237007454569</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="11">
         <f t="array" ref="F31">IF(D31&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A31,IF('F1 Analysis'!$C$2:$C$37=C31,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>2.4198427014080455E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="16" t="str">
-        <f t="shared" si="6"/>
+      <c r="A32" s="10" t="str">
+        <f>$A$5</f>
         <v>SVM</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="17" t="str">
-        <f t="shared" si="7"/>
+      <c r="C32" s="11" t="str">
+        <f>$C14</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D32" s="16">
-        <f t="shared" si="5"/>
+      <c r="D32" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <f t="array" ref="E32">IF(D32=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A32,IF('F1 Analysis'!$C$2:$C$37=C32,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.82353535658641075</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="11">
         <f t="array" ref="F32">IF(D32&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A32,IF('F1 Analysis'!$C$2:$C$37=C32,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>2.4360579988675695E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="16" t="str">
+      <c r="A33" s="10" t="str">
         <f>$A$6</f>
         <v>LR</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="17" t="str">
+      <c r="C33" s="11" t="str">
         <f>$C12</f>
         <v>/</v>
       </c>
-      <c r="D33" s="16">
-        <f t="shared" si="5"/>
+      <c r="D33" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <f t="array" ref="E33">IF(D33=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A33,IF('F1 Analysis'!$C$2:$C$37=C33,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.83521328982394716</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="11">
         <f t="array" ref="F33">IF(D33&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A33,IF('F1 Analysis'!$C$2:$C$37=C33,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>2.1136781175524495E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="16" t="str">
-        <f t="shared" ref="A34:A35" si="8">$A$6</f>
+      <c r="A34" s="10" t="str">
+        <f>$A$6</f>
         <v>LR</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="17" t="str">
-        <f t="shared" ref="C34:C35" si="9">$C13</f>
+      <c r="C34" s="11" t="str">
+        <f>$C13</f>
         <v>Chi^2</v>
       </c>
-      <c r="D34" s="16">
-        <f t="shared" si="5"/>
+      <c r="D34" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <f t="array" ref="E34">IF(D34=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A34,IF('F1 Analysis'!$C$2:$C$37=C34,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.84092057275507348</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="11">
         <f t="array" ref="F34">IF(D34&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A34,IF('F1 Analysis'!$C$2:$C$37=C34,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.2658127960802621E-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="16" t="str">
-        <f t="shared" si="8"/>
+      <c r="A35" s="10" t="str">
+        <f>$A$6</f>
         <v>LR</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="17" t="str">
-        <f t="shared" si="9"/>
+      <c r="C35" s="11" t="str">
+        <f>$C14</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D35" s="16">
-        <f t="shared" si="5"/>
+      <c r="D35" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <f t="array" ref="E35">IF(D35=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A35,IF('F1 Analysis'!$C$2:$C$37=C35,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.84015634081230017</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="11">
         <f t="array" ref="F35">IF(D35&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A35,IF('F1 Analysis'!$C$2:$C$37=C35,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>2.0584998668039633E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="16" t="str">
+      <c r="A36" s="10" t="str">
         <f>$A$7</f>
         <v>NB</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="17" t="str">
+      <c r="C36" s="11" t="str">
         <f>$C12</f>
         <v>/</v>
       </c>
-      <c r="D36" s="16">
-        <f t="shared" si="5"/>
+      <c r="D36" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <f t="array" ref="E36">IF(D36=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A36,IF('F1 Analysis'!$C$2:$C$37=C36,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.82280871962023583</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="11">
         <f t="array" ref="F36">IF(D36&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A36,IF('F1 Analysis'!$C$2:$C$37=C36,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.3059324553734673E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="16" t="str">
-        <f t="shared" ref="A37:A38" si="10">$A$7</f>
+      <c r="A37" s="10" t="str">
+        <f>$A$7</f>
         <v>NB</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="17" t="str">
-        <f t="shared" ref="C37:C38" si="11">$C13</f>
+      <c r="C37" s="11" t="str">
+        <f>$C13</f>
         <v>Chi^2</v>
       </c>
-      <c r="D37" s="16">
-        <f t="shared" si="5"/>
+      <c r="D37" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <f t="array" ref="E37">IF(D37=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A37,IF('F1 Analysis'!$C$2:$C$37=C37,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.84548228376922341</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="11">
         <f t="array" ref="F37">IF(D37&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A37,IF('F1 Analysis'!$C$2:$C$37=C37,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.217457216367709E-3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="16" t="str">
-        <f t="shared" si="10"/>
+      <c r="A38" s="10" t="str">
+        <f>$A$7</f>
         <v>NB</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="17" t="str">
-        <f t="shared" si="11"/>
+      <c r="C38" s="11" t="str">
+        <f>$C14</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D38" s="16">
-        <f t="shared" si="5"/>
+      <c r="D38" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <f t="array" ref="E38">IF(D38=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A38,IF('F1 Analysis'!$C$2:$C$37=C38,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="11">
         <f t="array" ref="F38">IF(D38&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A38,IF('F1 Analysis'!$C$2:$C$37=C38,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="16" t="str">
+      <c r="A39" s="10" t="str">
         <f>$A$8</f>
         <v>RF</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="17" t="str">
+      <c r="C39" s="11" t="str">
         <f>$C12</f>
         <v>/</v>
       </c>
-      <c r="D39" s="16">
-        <f t="shared" si="5"/>
+      <c r="D39" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <f t="array" ref="E39">IF(D39=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A39,IF('F1 Analysis'!$C$2:$C$37=C39,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.8058112044731558</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="11">
         <f t="array" ref="F39">IF(D39&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A39,IF('F1 Analysis'!$C$2:$C$37=C39,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>7.5420347681447522E-4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="16" t="str">
-        <f t="shared" ref="A40:A41" si="12">$A$8</f>
+      <c r="A40" s="10" t="str">
+        <f>$A$8</f>
         <v>RF</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="17" t="str">
-        <f t="shared" ref="C40:C41" si="13">$C13</f>
+      <c r="C40" s="11" t="str">
+        <f>$C13</f>
         <v>Chi^2</v>
       </c>
-      <c r="D40" s="16">
-        <f t="shared" si="5"/>
+      <c r="D40" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <f t="array" ref="E40">IF(D40=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A40,IF('F1 Analysis'!$C$2:$C$37=C40,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.81265774675982794</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="11">
         <f t="array" ref="F40">IF(D40&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A40,IF('F1 Analysis'!$C$2:$C$37=C40,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>9.277286001977557E-4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="16" t="str">
-        <f t="shared" si="12"/>
+      <c r="A41" s="10" t="str">
+        <f>$A$8</f>
         <v>RF</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="17" t="str">
-        <f t="shared" si="13"/>
+      <c r="C41" s="11" t="str">
+        <f>$C14</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D41" s="16">
-        <f t="shared" si="5"/>
+      <c r="D41" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <f t="array" ref="E41">IF(D41=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A41,IF('F1 Analysis'!$C$2:$C$37=C41,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.77159772127779558</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="11">
         <f t="array" ref="F41">IF(D41&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A41,IF('F1 Analysis'!$C$2:$C$37=C41,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>3.9057970836700348E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="16" t="str">
+      <c r="A42" s="10" t="str">
         <f>$A$9</f>
         <v>Ensemble</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="17" t="str">
+      <c r="C42" s="11" t="str">
         <f>$C12</f>
         <v>/</v>
       </c>
-      <c r="D42" s="16">
-        <f t="shared" si="5"/>
+      <c r="D42" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <f t="array" ref="E42">IF(D42=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A42,IF('F1 Analysis'!$C$2:$C$37=C42,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.84275335465490131</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="11">
         <f t="array" ref="F42">IF(D42&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A42,IF('F1 Analysis'!$C$2:$C$37=C42,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>2.3379195472681019E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="16" t="str">
-        <f t="shared" ref="A43:A44" si="14">$A$9</f>
+      <c r="A43" s="10" t="str">
+        <f>$A$9</f>
         <v>Ensemble</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="17" t="str">
-        <f t="shared" ref="C43:C44" si="15">$C13</f>
+      <c r="C43" s="11" t="str">
+        <f>$C13</f>
         <v>Chi^2</v>
       </c>
-      <c r="D43" s="16">
-        <f t="shared" si="5"/>
+      <c r="D43" s="10">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43">
         <f t="array" ref="E43">IF(D43=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A43,IF('F1 Analysis'!$C$2:$C$37=C43,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.86733924518016214</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="11">
         <f t="array" ref="F43">IF(D43&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A43,IF('F1 Analysis'!$C$2:$C$37=C43,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.5686921907456684E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="18" t="str">
-        <f t="shared" si="14"/>
+      <c r="A44" s="12" t="str">
+        <f>$A$9</f>
         <v>Ensemble</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20" t="str">
-        <f t="shared" si="15"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14" t="str">
+        <f>$C14</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D44" s="18">
-        <f t="shared" si="5"/>
+      <c r="D44" s="12">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="13">
         <f t="array" ref="E44">IF(D44=0,"",AVERAGE(IF('F1 Analysis'!$A$2:$A$37=A44,IF('F1 Analysis'!$C$2:$C$37=C44,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.83866649223269329</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="14">
         <f t="array" ref="F44">IF(D44&lt;2,"",VAR(IF('F1 Analysis'!$A$2:$A$37=A44,IF('F1 Analysis'!$C$2:$C$37=C44,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.7478765150693654E-3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14" t="str">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8" t="str">
         <f>$B$10</f>
         <v>BoW</v>
       </c>
-      <c r="C45" s="15" t="str">
+      <c r="C45" s="9" t="str">
         <f>$C12</f>
         <v>/</v>
       </c>
-      <c r="D45" s="13">
-        <f>SUMIFS($D$51:$D$86,$B$51:$B$86,B45,$C$51:$C$86,C45)</f>
+      <c r="D45" s="7">
+        <f t="shared" ref="D45:D50" si="4">SUMIFS($D$51:$D$86,$B$51:$B$86,B45,$C$51:$C$86,C45)</f>
         <v>30</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="8">
         <f t="array" ref="E45">IF(D45=0,"",AVERAGE(IF('F1 Analysis'!$B$2:$B$37=B45,IF('F1 Analysis'!$C$2:$C$37=C45,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.78445473142740019</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="9">
         <f t="array" ref="F45">IF(D45&lt;2,"",VAR(IF('F1 Analysis'!$B$2:$B$37=B45,IF('F1 Analysis'!$C$2:$C$37=C45,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>8.3504352090948957E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="16"/>
-      <c r="B46" s="3" t="str">
-        <f t="shared" ref="B46:B47" si="16">$B$10</f>
+      <c r="A46" s="10"/>
+      <c r="B46" t="str">
+        <f>$B$10</f>
         <v>BoW</v>
       </c>
-      <c r="C46" s="17" t="str">
-        <f t="shared" ref="C46:C47" si="17">$C13</f>
+      <c r="C46" s="11" t="str">
+        <f>$C13</f>
         <v>Chi^2</v>
       </c>
-      <c r="D46" s="16">
-        <f t="shared" ref="D46:D50" si="18">SUMIFS($D$51:$D$86,$B$51:$B$86,B46,$C$51:$C$86,C46)</f>
+      <c r="D46" s="10">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46">
         <f t="array" ref="E46">IF(D46=0,"",AVERAGE(IF('F1 Analysis'!$B$2:$B$37=B46,IF('F1 Analysis'!$C$2:$C$37=C46,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.80890353782311297</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="11">
         <f t="array" ref="F46">IF(D46&lt;2,"",VAR(IF('F1 Analysis'!$B$2:$B$37=B46,IF('F1 Analysis'!$C$2:$C$37=C46,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>5.0896621294139847E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="16"/>
-      <c r="B47" s="3" t="str">
-        <f t="shared" si="16"/>
+      <c r="A47" s="10"/>
+      <c r="B47" t="str">
+        <f>$B$10</f>
         <v>BoW</v>
       </c>
-      <c r="C47" s="17" t="str">
-        <f t="shared" si="17"/>
+      <c r="C47" s="11" t="str">
+        <f>$C14</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D47" s="16">
-        <f t="shared" si="18"/>
+      <c r="D47" s="10">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47">
         <f t="array" ref="E47">IF(D47=0,"",AVERAGE(IF('F1 Analysis'!$B$2:$B$37=B47,IF('F1 Analysis'!$C$2:$C$37=C47,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.64574063180230723</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="11">
         <f t="array" ref="F47">IF(D47&lt;2,"",VAR(IF('F1 Analysis'!$B$2:$B$37=B47,IF('F1 Analysis'!$C$2:$C$37=C47,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>9.1390292713529594E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="16"/>
-      <c r="B48" s="3" t="str">
+      <c r="A48" s="10"/>
+      <c r="B48" t="str">
         <f>$B$11</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C48" s="17" t="str">
+      <c r="C48" s="11" t="str">
         <f>$C12</f>
         <v>/</v>
       </c>
-      <c r="D48" s="16">
-        <f t="shared" si="18"/>
+      <c r="D48" s="10">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48">
         <f t="array" ref="E48">IF(D48=0,"",AVERAGE(IF('F1 Analysis'!$B$2:$B$37=B48,IF('F1 Analysis'!$C$2:$C$37=C48,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.82340887919987937</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="11">
         <f t="array" ref="F48">IF(D48&lt;2,"",VAR(IF('F1 Analysis'!$B$2:$B$37=B48,IF('F1 Analysis'!$C$2:$C$37=C48,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>1.683394069732383E-3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="16"/>
-      <c r="B49" s="3" t="str">
-        <f t="shared" ref="B49:B50" si="19">$B$11</f>
+      <c r="A49" s="10"/>
+      <c r="B49" t="str">
+        <f>$B$11</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C49" s="17" t="str">
-        <f t="shared" ref="C49:C50" si="20">$C13</f>
+      <c r="C49" s="11" t="str">
+        <f>$C13</f>
         <v>Chi^2</v>
       </c>
-      <c r="D49" s="16">
-        <f t="shared" si="18"/>
+      <c r="D49" s="10">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49">
         <f t="array" ref="E49">IF(D49=0,"",AVERAGE(IF('F1 Analysis'!$B$2:$B$37=B49,IF('F1 Analysis'!$C$2:$C$37=C49,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.82063126445223133</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="11">
         <f t="array" ref="F49">IF(D49&lt;2,"",VAR(IF('F1 Analysis'!$B$2:$B$37=B49,IF('F1 Analysis'!$C$2:$C$37=C49,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>4.2223167177516631E-3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13" t="str">
+        <f>$B$11</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C50" s="20" t="str">
-        <f t="shared" si="20"/>
+      <c r="C50" s="14" t="str">
+        <f>$C14</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D50" s="18">
-        <f t="shared" si="18"/>
+      <c r="D50" s="12">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="13">
         <f t="array" ref="E50">IF(D50=0,"",AVERAGE(IF('F1 Analysis'!$B$2:$B$37=B50,IF('F1 Analysis'!$C$2:$C$37=C50,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>0.67446113518566331</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="14">
         <f t="array" ref="F50">IF(D50&lt;2,"",VAR(IF('F1 Analysis'!$B$2:$B$37=B50,IF('F1 Analysis'!$C$2:$C$37=C50,'F1 Analysis'!$D$2:$H$37,""))))</f>
         <v>9.8327905065991997E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="13" t="str">
+      <c r="A51" s="7" t="str">
         <f>'F1 Analysis'!A2</f>
         <v>kNN</v>
       </c>
-      <c r="B51" s="14" t="str">
+      <c r="B51" s="8" t="str">
         <f>'F1 Analysis'!B2</f>
         <v>BoW</v>
       </c>
-      <c r="C51" s="15" t="str">
+      <c r="C51" s="9" t="str">
         <f>'F1 Analysis'!C2</f>
         <v>/</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="7">
         <f>COUNT('F1 Analysis'!D2:H2)</f>
         <v>5</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="8">
         <f>AVERAGE('F1 Analysis'!D2:H2)</f>
         <v>0.61091025018216327</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="9">
         <f>_xlfn.VAR.S('F1 Analysis'!D2:H2)</f>
         <v>4.1417284151600261E-3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="16" t="str">
+      <c r="A52" s="10" t="str">
         <f>'F1 Analysis'!A3</f>
         <v>kNN</v>
       </c>
-      <c r="B52" s="3" t="str">
+      <c r="B52" t="str">
         <f>'F1 Analysis'!B3</f>
         <v>BoW</v>
       </c>
-      <c r="C52" s="17" t="str">
+      <c r="C52" s="11" t="str">
         <f>'F1 Analysis'!C3</f>
         <v>Chi^2</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="10">
         <f>COUNT('F1 Analysis'!D3:H3)</f>
         <v>5</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52">
         <f>AVERAGE('F1 Analysis'!D3:H3)</f>
         <v>0.67708654294252502</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D3:H3)</f>
         <v>1.0323099514542888E-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="16" t="str">
+      <c r="A53" s="10" t="str">
         <f>'F1 Analysis'!A4</f>
         <v>kNN</v>
       </c>
-      <c r="B53" s="3" t="str">
+      <c r="B53" t="str">
         <f>'F1 Analysis'!B4</f>
         <v>BoW</v>
       </c>
-      <c r="C53" s="17" t="str">
+      <c r="C53" s="11" t="str">
         <f>'F1 Analysis'!C4</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="10">
         <f>COUNT('F1 Analysis'!D4:H4)</f>
         <v>5</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53">
         <f>AVERAGE('F1 Analysis'!D4:H4)</f>
         <v>0.67549918183695445</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D4:H4)</f>
         <v>3.3251277986557442E-3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="16" t="str">
+      <c r="A54" s="10" t="str">
         <f>'F1 Analysis'!A5</f>
         <v>kNN</v>
       </c>
-      <c r="B54" s="3" t="str">
+      <c r="B54" t="str">
         <f>'F1 Analysis'!B5</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C54" s="17" t="str">
+      <c r="C54" s="11" t="str">
         <f>'F1 Analysis'!C5</f>
         <v>/</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="10">
         <f>COUNT('F1 Analysis'!D5:H5)</f>
         <v>5</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54">
         <f>AVERAGE('F1 Analysis'!D5:H5)</f>
         <v>0.79156773976772699</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D5:H5)</f>
         <v>1.7484777266432788E-3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="16" t="str">
+      <c r="A55" s="10" t="str">
         <f>'F1 Analysis'!A6</f>
         <v>kNN</v>
       </c>
-      <c r="B55" s="3" t="str">
+      <c r="B55" t="str">
         <f>'F1 Analysis'!B6</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C55" s="17" t="str">
+      <c r="C55" s="11" t="str">
         <f>'F1 Analysis'!C6</f>
         <v>Chi^2</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="10">
         <f>COUNT('F1 Analysis'!D6:H6)</f>
         <v>5</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55">
         <f>AVERAGE('F1 Analysis'!D6:H6)</f>
         <v>0.71087783363187418</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D6:H6)</f>
         <v>1.7183384683246363E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="16" t="str">
+      <c r="A56" s="10" t="str">
         <f>'F1 Analysis'!A7</f>
         <v>kNN</v>
       </c>
-      <c r="B56" s="3" t="str">
+      <c r="B56" t="str">
         <f>'F1 Analysis'!B7</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C56" s="17" t="str">
+      <c r="C56" s="11" t="str">
         <f>'F1 Analysis'!C7</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="10">
         <f>COUNT('F1 Analysis'!D7:H7)</f>
         <v>5</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56">
         <f>AVERAGE('F1 Analysis'!D7:H7)</f>
         <v>0.69779959827247151</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D7:H7)</f>
         <v>2.3656804912603243E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="16" t="str">
+      <c r="A57" s="10" t="str">
         <f>'F1 Analysis'!A8</f>
         <v>SVM</v>
       </c>
-      <c r="B57" s="3" t="str">
+      <c r="B57" t="str">
         <f>'F1 Analysis'!B8</f>
         <v>BoW</v>
       </c>
-      <c r="C57" s="17" t="str">
+      <c r="C57" s="11" t="str">
         <f>'F1 Analysis'!C8</f>
         <v>/</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="10">
         <f>COUNT('F1 Analysis'!D8:H8)</f>
         <v>5</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57">
         <f>AVERAGE('F1 Analysis'!D8:H8)</f>
         <v>0.80081341541129736</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D8:H8)</f>
         <v>9.8187106816168207E-4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="16" t="str">
+      <c r="A58" s="10" t="str">
         <f>'F1 Analysis'!A9</f>
         <v>SVM</v>
       </c>
-      <c r="B58" s="3" t="str">
+      <c r="B58" t="str">
         <f>'F1 Analysis'!B9</f>
         <v>BoW</v>
       </c>
-      <c r="C58" s="17" t="str">
+      <c r="C58" s="11" t="str">
         <f>'F1 Analysis'!C9</f>
         <v>Chi^2</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="10">
         <f>COUNT('F1 Analysis'!D9:H9)</f>
         <v>5</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58">
         <f>AVERAGE('F1 Analysis'!D9:H9)</f>
         <v>0.80893053731024478</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D9:H9)</f>
         <v>3.1154317236043523E-3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="16" t="str">
+      <c r="A59" s="10" t="str">
         <f>'F1 Analysis'!A10</f>
         <v>SVM</v>
       </c>
-      <c r="B59" s="3" t="str">
+      <c r="B59" t="str">
         <f>'F1 Analysis'!B10</f>
         <v>BoW</v>
       </c>
-      <c r="C59" s="17" t="str">
+      <c r="C59" s="11" t="str">
         <f>'F1 Analysis'!C10</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="10">
         <f>COUNT('F1 Analysis'!D10:H10)</f>
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59">
         <f>AVERAGE('F1 Analysis'!D10:H10)</f>
         <v>0.79932436198669954</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D10:H10)</f>
         <v>3.2592297211274939E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="16" t="str">
+      <c r="A60" s="10" t="str">
         <f>'F1 Analysis'!A11</f>
         <v>SVM</v>
       </c>
-      <c r="B60" s="3" t="str">
+      <c r="B60" t="str">
         <f>'F1 Analysis'!B11</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C60" s="17" t="str">
+      <c r="C60" s="11" t="str">
         <f>'F1 Analysis'!C11</f>
         <v>/</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="10">
         <f>COUNT('F1 Analysis'!D11:H11)</f>
         <v>5</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60">
         <f>AVERAGE('F1 Analysis'!D11:H11)</f>
         <v>0.83071712125800745</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D11:H11)</f>
         <v>2.1266351123816109E-3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="16" t="str">
+      <c r="A61" s="10" t="str">
         <f>'F1 Analysis'!A12</f>
         <v>SVM</v>
       </c>
-      <c r="B61" s="3" t="str">
+      <c r="B61" t="str">
         <f>'F1 Analysis'!B12</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C61" s="17" t="str">
+      <c r="C61" s="11" t="str">
         <f>'F1 Analysis'!C12</f>
         <v>Chi^2</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="10">
         <f>COUNT('F1 Analysis'!D12:H12)</f>
         <v>5</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61">
         <f>AVERAGE('F1 Analysis'!D12:H12)</f>
         <v>0.84751420283884649</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D12:H12)</f>
         <v>1.3987773260493675E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="16" t="str">
+      <c r="A62" s="10" t="str">
         <f>'F1 Analysis'!A13</f>
         <v>SVM</v>
       </c>
-      <c r="B62" s="3" t="str">
+      <c r="B62" t="str">
         <f>'F1 Analysis'!B13</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C62" s="17" t="str">
+      <c r="C62" s="11" t="str">
         <f>'F1 Analysis'!C13</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="10">
         <f>COUNT('F1 Analysis'!D13:H13)</f>
         <v>5</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62">
         <f>AVERAGE('F1 Analysis'!D13:H13)</f>
         <v>0.84774635118612207</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D13:H13)</f>
         <v>7.5647012755642611E-4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="16" t="str">
+      <c r="A63" s="10" t="str">
         <f>'F1 Analysis'!A14</f>
         <v>LR</v>
       </c>
-      <c r="B63" s="3" t="str">
+      <c r="B63" t="str">
         <f>'F1 Analysis'!B14</f>
         <v>BoW</v>
       </c>
-      <c r="C63" s="17" t="str">
+      <c r="C63" s="11" t="str">
         <f>'F1 Analysis'!C14</f>
         <v>/</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="10">
         <f>COUNT('F1 Analysis'!D14:H14)</f>
         <v>5</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63">
         <f>AVERAGE('F1 Analysis'!D14:H14)</f>
         <v>0.84074442175686115</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D14:H14)</f>
         <v>2.8150312034860422E-3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="16" t="str">
+      <c r="A64" s="10" t="str">
         <f>'F1 Analysis'!A15</f>
         <v>LR</v>
       </c>
-      <c r="B64" s="3" t="str">
+      <c r="B64" t="str">
         <f>'F1 Analysis'!B15</f>
         <v>BoW</v>
       </c>
-      <c r="C64" s="17" t="str">
+      <c r="C64" s="11" t="str">
         <f>'F1 Analysis'!C15</f>
         <v>Chi^2</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="10">
         <f>COUNT('F1 Analysis'!D15:H15)</f>
         <v>5</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64">
         <f>AVERAGE('F1 Analysis'!D15:H15)</f>
         <v>0.84520300916564428</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D15:H15)</f>
         <v>7.0242365081133471E-4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="16" t="str">
+      <c r="A65" s="10" t="str">
         <f>'F1 Analysis'!A16</f>
         <v>LR</v>
       </c>
-      <c r="B65" s="3" t="str">
+      <c r="B65" t="str">
         <f>'F1 Analysis'!B16</f>
         <v>BoW</v>
       </c>
-      <c r="C65" s="17" t="str">
+      <c r="C65" s="11" t="str">
         <f>'F1 Analysis'!C16</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="10">
         <f>COUNT('F1 Analysis'!D16:H16)</f>
         <v>5</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65">
         <f>AVERAGE('F1 Analysis'!D16:H16)</f>
         <v>0.84134004010855024</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D16:H16)</f>
         <v>1.613724159327127E-3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="16" t="str">
+      <c r="A66" s="10" t="str">
         <f>'F1 Analysis'!A17</f>
         <v>LR</v>
       </c>
-      <c r="B66" s="3" t="str">
+      <c r="B66" t="str">
         <f>'F1 Analysis'!B17</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C66" s="17" t="str">
+      <c r="C66" s="11" t="str">
         <f>'F1 Analysis'!C17</f>
         <v>/</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="10">
         <f>COUNT('F1 Analysis'!D17:H17)</f>
         <v>5</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66">
         <f>AVERAGE('F1 Analysis'!D17:H17)</f>
         <v>0.82968215789103295</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D17:H17)</f>
         <v>1.8642610098587127E-3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="16" t="str">
+      <c r="A67" s="10" t="str">
         <f>'F1 Analysis'!A18</f>
         <v>LR</v>
       </c>
-      <c r="B67" s="3" t="str">
+      <c r="B67" t="str">
         <f>'F1 Analysis'!B18</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C67" s="17" t="str">
+      <c r="C67" s="11" t="str">
         <f>'F1 Analysis'!C18</f>
         <v>Chi^2</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="10">
         <f>COUNT('F1 Analysis'!D18:H18)</f>
         <v>5</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67">
         <f>AVERAGE('F1 Analysis'!D18:H18)</f>
         <v>0.8366381363445029</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D18:H18)</f>
         <v>2.0998069863428009E-3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="16" t="str">
+      <c r="A68" s="10" t="str">
         <f>'F1 Analysis'!A19</f>
         <v>LR</v>
       </c>
-      <c r="B68" s="3" t="str">
+      <c r="B68" t="str">
         <f>'F1 Analysis'!B19</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C68" s="17" t="str">
+      <c r="C68" s="11" t="str">
         <f>'F1 Analysis'!C19</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="10">
         <f>COUNT('F1 Analysis'!D19:H19)</f>
         <v>5</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68">
         <f>AVERAGE('F1 Analysis'!D19:H19)</f>
         <v>0.83897264151605033</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D19:H19)</f>
         <v>3.0143976809219337E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="16" t="str">
+      <c r="A69" s="10" t="str">
         <f>'F1 Analysis'!A20</f>
         <v>NB</v>
       </c>
-      <c r="B69" s="3" t="str">
+      <c r="B69" t="str">
         <f>'F1 Analysis'!B20</f>
         <v>BoW</v>
       </c>
-      <c r="C69" s="17" t="str">
+      <c r="C69" s="11" t="str">
         <f>'F1 Analysis'!C20</f>
         <v>/</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="10">
         <f>COUNT('F1 Analysis'!D20:H20)</f>
         <v>5</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69">
         <f>AVERAGE('F1 Analysis'!D20:H20)</f>
         <v>0.81302342332761257</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D20:H20)</f>
         <v>1.1663218281103692E-3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="16" t="str">
+      <c r="A70" s="10" t="str">
         <f>'F1 Analysis'!A21</f>
         <v>NB</v>
       </c>
-      <c r="B70" s="3" t="str">
+      <c r="B70" t="str">
         <f>'F1 Analysis'!B21</f>
         <v>BoW</v>
       </c>
-      <c r="C70" s="17" t="str">
+      <c r="C70" s="11" t="str">
         <f>'F1 Analysis'!C21</f>
         <v>Chi^2</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="10">
         <f>COUNT('F1 Analysis'!D21:H21)</f>
         <v>5</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70">
         <f>AVERAGE('F1 Analysis'!D21:H21)</f>
         <v>0.84593023281619217</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D21:H21)</f>
         <v>1.6905684883796413E-3</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="16" t="str">
+      <c r="A71" s="10" t="str">
         <f>'F1 Analysis'!A22</f>
         <v>NB</v>
       </c>
-      <c r="B71" s="3" t="str">
+      <c r="B71" t="str">
         <f>'F1 Analysis'!B22</f>
         <v>BoW</v>
       </c>
-      <c r="C71" s="17" t="str">
+      <c r="C71" s="11" t="str">
         <f>'F1 Analysis'!C22</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="10">
         <f>COUNT('F1 Analysis'!D22:H22)</f>
         <v>5</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71">
         <f>AVERAGE('F1 Analysis'!D22:H22)</f>
         <v>0</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D22:H22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="16" t="str">
+      <c r="A72" s="10" t="str">
         <f>'F1 Analysis'!A23</f>
         <v>NB</v>
       </c>
-      <c r="B72" s="3" t="str">
+      <c r="B72" t="str">
         <f>'F1 Analysis'!B23</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C72" s="17" t="str">
+      <c r="C72" s="11" t="str">
         <f>'F1 Analysis'!C23</f>
         <v>/</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="10">
         <f>COUNT('F1 Analysis'!D23:H23)</f>
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72">
         <f>AVERAGE('F1 Analysis'!D23:H23)</f>
         <v>0.8325940159128592</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D23:H23)</f>
         <v>1.5326461376438643E-3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="16" t="str">
+      <c r="A73" s="10" t="str">
         <f>'F1 Analysis'!A24</f>
         <v>NB</v>
       </c>
-      <c r="B73" s="3" t="str">
+      <c r="B73" t="str">
         <f>'F1 Analysis'!B24</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C73" s="17" t="str">
+      <c r="C73" s="11" t="str">
         <f>'F1 Analysis'!C24</f>
         <v>Chi^2</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="10">
         <f>COUNT('F1 Analysis'!D24:H24)</f>
         <v>5</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73">
         <f>AVERAGE('F1 Analysis'!D24:H24)</f>
         <v>0.84503433472225464</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D24:H24)</f>
         <v>1.0482086025760035E-3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" s="16" t="str">
+      <c r="A74" s="10" t="str">
         <f>'F1 Analysis'!A25</f>
         <v>NB</v>
       </c>
-      <c r="B74" s="3" t="str">
+      <c r="B74" t="str">
         <f>'F1 Analysis'!B25</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C74" s="17" t="str">
+      <c r="C74" s="11" t="str">
         <f>'F1 Analysis'!C25</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="10">
         <f>COUNT('F1 Analysis'!D25:H25)</f>
         <v>5</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74">
         <f>AVERAGE('F1 Analysis'!D25:H25)</f>
         <v>0</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D25:H25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="16" t="str">
+      <c r="A75" s="10" t="str">
         <f>'F1 Analysis'!A26</f>
         <v>RF</v>
       </c>
-      <c r="B75" s="3" t="str">
+      <c r="B75" t="str">
         <f>'F1 Analysis'!B26</f>
         <v>BoW</v>
       </c>
-      <c r="C75" s="17" t="str">
+      <c r="C75" s="11" t="str">
         <f>'F1 Analysis'!C26</f>
         <v>/</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="10">
         <f>COUNT('F1 Analysis'!D26:H26)</f>
         <v>5</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75">
         <f>AVERAGE('F1 Analysis'!D26:H26)</f>
         <v>0.79929554214048315</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D26:H26)</f>
         <v>7.5455537776009758E-4</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="16" t="str">
+      <c r="A76" s="10" t="str">
         <f>'F1 Analysis'!A27</f>
         <v>RF</v>
       </c>
-      <c r="B76" s="3" t="str">
+      <c r="B76" t="str">
         <f>'F1 Analysis'!B27</f>
         <v>BoW</v>
       </c>
-      <c r="C76" s="17" t="str">
+      <c r="C76" s="11" t="str">
         <f>'F1 Analysis'!C27</f>
         <v>Chi^2</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="10">
         <f>COUNT('F1 Analysis'!D27:H27)</f>
         <v>5</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76">
         <f>AVERAGE('F1 Analysis'!D27:H27)</f>
         <v>0.8166684721988402</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D27:H27)</f>
         <v>7.1631808581442032E-4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="16" t="str">
+      <c r="A77" s="10" t="str">
         <f>'F1 Analysis'!A28</f>
         <v>RF</v>
       </c>
-      <c r="B77" s="3" t="str">
+      <c r="B77" t="str">
         <f>'F1 Analysis'!B28</f>
         <v>BoW</v>
       </c>
-      <c r="C77" s="17" t="str">
+      <c r="C77" s="11" t="str">
         <f>'F1 Analysis'!C28</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="10">
         <f>COUNT('F1 Analysis'!D28:H28)</f>
         <v>5</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77">
         <f>AVERAGE('F1 Analysis'!D28:H28)</f>
         <v>0.7266662225643733</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D28:H28)</f>
         <v>7.5909475684878013E-4</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="16" t="str">
+      <c r="A78" s="10" t="str">
         <f>'F1 Analysis'!A29</f>
         <v>RF</v>
       </c>
-      <c r="B78" s="3" t="str">
+      <c r="B78" t="str">
         <f>'F1 Analysis'!B29</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C78" s="17" t="str">
+      <c r="C78" s="11" t="str">
         <f>'F1 Analysis'!C29</f>
         <v>/</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="10">
         <f>COUNT('F1 Analysis'!D29:H29)</f>
         <v>5</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78">
         <f>AVERAGE('F1 Analysis'!D29:H29)</f>
         <v>0.81232686680582877</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D29:H29)</f>
         <v>8.362678059889426E-4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="16" t="str">
+      <c r="A79" s="10" t="str">
         <f>'F1 Analysis'!A30</f>
         <v>RF</v>
       </c>
-      <c r="B79" s="3" t="str">
+      <c r="B79" t="str">
         <f>'F1 Analysis'!B30</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C79" s="17" t="str">
+      <c r="C79" s="11" t="str">
         <f>'F1 Analysis'!C30</f>
         <v>Chi^2</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="10">
         <f>COUNT('F1 Analysis'!D30:H30)</f>
         <v>5</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79">
         <f>AVERAGE('F1 Analysis'!D30:H30)</f>
         <v>0.80864702132081556</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D30:H30)</f>
         <v>1.3308564682626791E-3</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="16" t="str">
+      <c r="A80" s="10" t="str">
         <f>'F1 Analysis'!A31</f>
         <v>RF</v>
       </c>
-      <c r="B80" s="3" t="str">
+      <c r="B80" t="str">
         <f>'F1 Analysis'!B31</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C80" s="17" t="str">
+      <c r="C80" s="11" t="str">
         <f>'F1 Analysis'!C31</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D80" s="10">
         <f>COUNT('F1 Analysis'!D31:H31)</f>
         <v>5</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80">
         <f>AVERAGE('F1 Analysis'!D31:H31)</f>
         <v>0.81652921999121764</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D31:H31)</f>
         <v>2.9818497398231441E-3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="16" t="str">
+      <c r="A81" s="10" t="str">
         <f>'F1 Analysis'!A32</f>
         <v>Ensemble</v>
       </c>
-      <c r="B81" s="3" t="str">
+      <c r="B81" t="str">
         <f>'F1 Analysis'!B32</f>
         <v>BoW</v>
       </c>
-      <c r="C81" s="17" t="str">
+      <c r="C81" s="11" t="str">
         <f>'F1 Analysis'!C32</f>
         <v>/</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="10">
         <f>COUNT('F1 Analysis'!D32:H32)</f>
         <v>5</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81">
         <f>AVERAGE('F1 Analysis'!D32:H32)</f>
         <v>0.84194133574598207</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D32:H32)</f>
         <v>3.3124570665843283E-3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="16" t="str">
+      <c r="A82" s="10" t="str">
         <f>'F1 Analysis'!A33</f>
         <v>Ensemble</v>
       </c>
-      <c r="B82" s="3" t="str">
+      <c r="B82" t="str">
         <f>'F1 Analysis'!B33</f>
         <v>BoW</v>
       </c>
-      <c r="C82" s="17" t="str">
+      <c r="C82" s="11" t="str">
         <f>'F1 Analysis'!C33</f>
         <v>Chi^2</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="10">
         <f>COUNT('F1 Analysis'!D33:H33)</f>
         <v>5</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82">
         <f>AVERAGE('F1 Analysis'!D33:H33)</f>
         <v>0.85960243250523105</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D33:H33)</f>
         <v>1.2742225906537557E-3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="16" t="str">
+      <c r="A83" s="10" t="str">
         <f>'F1 Analysis'!A34</f>
         <v>Ensemble</v>
       </c>
-      <c r="B83" s="3" t="str">
+      <c r="B83" t="str">
         <f>'F1 Analysis'!B34</f>
         <v>BoW</v>
       </c>
-      <c r="C83" s="17" t="str">
+      <c r="C83" s="11" t="str">
         <f>'F1 Analysis'!C34</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="10">
         <f>COUNT('F1 Analysis'!D34:H34)</f>
         <v>5</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83">
         <f>AVERAGE('F1 Analysis'!D34:H34)</f>
         <v>0.83161398431726785</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D34:H34)</f>
         <v>2.6080957583126492E-3</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="16" t="str">
+      <c r="A84" s="10" t="str">
         <f>'F1 Analysis'!A35</f>
         <v>Ensemble</v>
       </c>
-      <c r="B84" s="3" t="str">
+      <c r="B84" t="str">
         <f>'F1 Analysis'!B35</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C84" s="17" t="str">
+      <c r="C84" s="11" t="str">
         <f>'F1 Analysis'!C35</f>
         <v>/</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="10">
         <f>COUNT('F1 Analysis'!D35:H35)</f>
         <v>5</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84">
         <f>AVERAGE('F1 Analysis'!D35:H35)</f>
         <v>0.84356537356382066</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D35:H35)</f>
         <v>1.9462134779977946E-3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="16" t="str">
+      <c r="A85" s="10" t="str">
         <f>'F1 Analysis'!A36</f>
         <v>Ensemble</v>
       </c>
-      <c r="B85" s="3" t="str">
+      <c r="B85" t="str">
         <f>'F1 Analysis'!B36</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C85" s="17" t="str">
+      <c r="C85" s="11" t="str">
         <f>'F1 Analysis'!C36</f>
         <v>Chi^2</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="10">
         <f>COUNT('F1 Analysis'!D36:H36)</f>
         <v>5</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85">
         <f>AVERAGE('F1 Analysis'!D36:H36)</f>
         <v>0.87507605785509368</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F85" s="11">
         <f>_xlfn.VAR.S('F1 Analysis'!D36:H36)</f>
         <v>2.1056891626065545E-3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="18" t="str">
+      <c r="A86" s="12" t="str">
         <f>'F1 Analysis'!A37</f>
         <v>Ensemble</v>
       </c>
-      <c r="B86" s="19" t="str">
+      <c r="B86" s="13" t="str">
         <f>'F1 Analysis'!B37</f>
         <v>Tf-Idf</v>
       </c>
-      <c r="C86" s="20" t="str">
+      <c r="C86" s="14" t="str">
         <f>'F1 Analysis'!C37</f>
         <v>Chi^2 + PCA</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="12">
         <f>COUNT('F1 Analysis'!D37:H37)</f>
         <v>5</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="13">
         <f>AVERAGE('F1 Analysis'!D37:H37)</f>
         <v>0.84571900014811874</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F86" s="14">
         <f>_xlfn.VAR.S('F1 Analysis'!D37:H37)</f>
         <v>1.2002817308505759E-3</v>
       </c>
@@ -8492,7 +8613,2721 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M5:M11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E535977C-EDF3-4ACD-972D-429B27861065}">
+  <dimension ref="A1:P91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="13" max="13" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>'F1 ANOVA'!E15</f>
+        <v>0.65449865832054754</v>
+      </c>
+      <c r="C2">
+        <f>'F1 ANOVA'!E16</f>
+        <v>0.73341505722402422</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>'F1 ANOVA'!E27</f>
+        <v>0.70123899497494513</v>
+      </c>
+      <c r="G2">
+        <f>'F1 ANOVA'!E28</f>
+        <v>0.69398218828719949</v>
+      </c>
+      <c r="H2">
+        <f>'F1 ANOVA'!E29</f>
+        <v>0.68664939005471293</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>'F1 ANOVA'!E51</f>
+        <v>0.61091025018216327</v>
+      </c>
+      <c r="L2">
+        <f>'F1 ANOVA'!E52</f>
+        <v>0.67708654294252502</v>
+      </c>
+      <c r="M2">
+        <f>'F1 ANOVA'!E53</f>
+        <v>0.67549918183695445</v>
+      </c>
+      <c r="N2">
+        <f>'F1 ANOVA'!E54</f>
+        <v>0.79156773976772699</v>
+      </c>
+      <c r="O2">
+        <f>'F1 ANOVA'!E55</f>
+        <v>0.71087783363187418</v>
+      </c>
+      <c r="P2">
+        <f>'F1 ANOVA'!E56</f>
+        <v>0.69779959827247151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>'F1 ANOVA'!E17</f>
+        <v>0.80302277156941393</v>
+      </c>
+      <c r="C3">
+        <f>'F1 ANOVA'!E18</f>
+        <v>0.84199255842765874</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>'F1 ANOVA'!E30</f>
+        <v>0.81576526833465235</v>
+      </c>
+      <c r="G3">
+        <f>'F1 ANOVA'!E31</f>
+        <v>0.82822237007454569</v>
+      </c>
+      <c r="H3">
+        <f>'F1 ANOVA'!E32</f>
+        <v>0.82353535658641075</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>'F1 ANOVA'!E57</f>
+        <v>0.80081341541129736</v>
+      </c>
+      <c r="L3">
+        <f>'F1 ANOVA'!E58</f>
+        <v>0.80893053731024478</v>
+      </c>
+      <c r="M3">
+        <f>'F1 ANOVA'!E59</f>
+        <v>0.79932436198669954</v>
+      </c>
+      <c r="N3">
+        <f>'F1 ANOVA'!E60</f>
+        <v>0.83071712125800745</v>
+      </c>
+      <c r="O3">
+        <f>'F1 ANOVA'!E61</f>
+        <v>0.84751420283884649</v>
+      </c>
+      <c r="P3">
+        <f>'F1 ANOVA'!E62</f>
+        <v>0.84774635118612207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>'F1 ANOVA'!E19</f>
+        <v>0.84242915701035193</v>
+      </c>
+      <c r="C4">
+        <f>'F1 ANOVA'!E20</f>
+        <v>0.83509764525052865</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>'F1 ANOVA'!E33</f>
+        <v>0.83521328982394716</v>
+      </c>
+      <c r="G4">
+        <f>'F1 ANOVA'!E34</f>
+        <v>0.84092057275507348</v>
+      </c>
+      <c r="H4">
+        <f>'F1 ANOVA'!E35</f>
+        <v>0.84015634081230017</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>'F1 ANOVA'!E63</f>
+        <v>0.84074442175686115</v>
+      </c>
+      <c r="L4">
+        <f>'F1 ANOVA'!E64</f>
+        <v>0.84520300916564428</v>
+      </c>
+      <c r="M4">
+        <f>'F1 ANOVA'!E65</f>
+        <v>0.84134004010855024</v>
+      </c>
+      <c r="N4">
+        <f>'F1 ANOVA'!E66</f>
+        <v>0.82968215789103295</v>
+      </c>
+      <c r="O4">
+        <f>'F1 ANOVA'!E67</f>
+        <v>0.8366381363445029</v>
+      </c>
+      <c r="P4">
+        <f>'F1 ANOVA'!E68</f>
+        <v>0.83897264151605033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>'F1 ANOVA'!E21</f>
+        <v>0.55298455204793484</v>
+      </c>
+      <c r="C5">
+        <f>'F1 ANOVA'!E22</f>
+        <v>0.55920945021170465</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>'F1 ANOVA'!E36</f>
+        <v>0.82280871962023583</v>
+      </c>
+      <c r="G5">
+        <f>'F1 ANOVA'!E37</f>
+        <v>0.84548228376922341</v>
+      </c>
+      <c r="H5">
+        <f>'F1 ANOVA'!E38</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>'F1 ANOVA'!E69</f>
+        <v>0.81302342332761257</v>
+      </c>
+      <c r="L5">
+        <f>'F1 ANOVA'!E70</f>
+        <v>0.84593023281619217</v>
+      </c>
+      <c r="M5">
+        <f>'F1 ANOVA'!E71</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>'F1 ANOVA'!E72</f>
+        <v>0.8325940159128592</v>
+      </c>
+      <c r="O5">
+        <f>'F1 ANOVA'!E73</f>
+        <v>0.84503433472225464</v>
+      </c>
+      <c r="P5">
+        <f>'F1 ANOVA'!E74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>'F1 ANOVA'!E23</f>
+        <v>0.78087674563456533</v>
+      </c>
+      <c r="C6">
+        <f>'F1 ANOVA'!E24</f>
+        <v>0.81250103603928736</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>'F1 ANOVA'!E39</f>
+        <v>0.8058112044731558</v>
+      </c>
+      <c r="G6">
+        <f>'F1 ANOVA'!E40</f>
+        <v>0.81265774675982794</v>
+      </c>
+      <c r="H6">
+        <f>'F1 ANOVA'!E41</f>
+        <v>0.77159772127779558</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f>'F1 ANOVA'!E75</f>
+        <v>0.79929554214048315</v>
+      </c>
+      <c r="L6">
+        <f>'F1 ANOVA'!E76</f>
+        <v>0.8166684721988402</v>
+      </c>
+      <c r="M6">
+        <f>'F1 ANOVA'!E77</f>
+        <v>0.7266662225643733</v>
+      </c>
+      <c r="N6">
+        <f>'F1 ANOVA'!E78</f>
+        <v>0.81232686680582877</v>
+      </c>
+      <c r="O6">
+        <f>'F1 ANOVA'!E79</f>
+        <v>0.80864702132081556</v>
+      </c>
+      <c r="P6">
+        <f>'F1 ANOVA'!E80</f>
+        <v>0.81652921999121764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>'F1 ANOVA'!E25</f>
+        <v>0.84438591752282699</v>
+      </c>
+      <c r="C7">
+        <f>'F1 ANOVA'!E26</f>
+        <v>0.85478681052234429</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f>'F1 ANOVA'!E42</f>
+        <v>0.84275335465490131</v>
+      </c>
+      <c r="G7">
+        <f>'F1 ANOVA'!E43</f>
+        <v>0.86733924518016214</v>
+      </c>
+      <c r="H7">
+        <f>'F1 ANOVA'!E44</f>
+        <v>0.83866649223269329</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f>'F1 ANOVA'!E81</f>
+        <v>0.84194133574598207</v>
+      </c>
+      <c r="L7">
+        <f>'F1 ANOVA'!E82</f>
+        <v>0.85960243250523105</v>
+      </c>
+      <c r="M7">
+        <f>'F1 ANOVA'!E83</f>
+        <v>0.83161398431726785</v>
+      </c>
+      <c r="N7">
+        <f>'F1 ANOVA'!E84</f>
+        <v>0.84356537356382066</v>
+      </c>
+      <c r="O7">
+        <f>'F1 ANOVA'!E85</f>
+        <v>0.87507605785509368</v>
+      </c>
+      <c r="P7">
+        <f>'F1 ANOVA'!E86</f>
+        <v>0.84571900014811874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="29">
+        <f t="array" ref="A10:G12">TRANSPOSE(A1:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="B10" t="str">
+        <v>kNN</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SVM</v>
+      </c>
+      <c r="D10" t="str">
+        <v>LR</v>
+      </c>
+      <c r="E10" t="str">
+        <v>NB</v>
+      </c>
+      <c r="F10" t="str">
+        <v>RF</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Ensemble</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <v>BoW</v>
+      </c>
+      <c r="B11" s="26">
+        <v>0.65449865832054754</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.80302277156941393</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.84242915701035193</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0.55298455204793484</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.78087674563456533</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.84438591752282699</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" t="str">
+        <v>Tf-Idf</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.73341505722402422</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.84199255842765874</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.83509764525052865</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.55920945021170465</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.81250103603928736</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.85478681052234429</v>
+      </c>
+      <c r="I12" s="30" t="str">
+        <f t="array" ref="I12:I17">TRANSPOSE(B10:G10)</f>
+        <v>kNN</v>
+      </c>
+      <c r="J12" s="30">
+        <f>AVERAGE(B11:B12)</f>
+        <v>0.69395685777228588</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I13" s="31" t="str">
+        <v>SVM</v>
+      </c>
+      <c r="J13" s="31">
+        <f>AVERAGE(C11:C12)</f>
+        <v>0.82250766499853634</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I14" s="31" t="str">
+        <v>LR</v>
+      </c>
+      <c r="J14" s="31">
+        <f>AVERAGE(D11:D12)</f>
+        <v>0.83876340113044034</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I15" s="31" t="str">
+        <v>NB</v>
+      </c>
+      <c r="J15" s="31">
+        <f>AVERAGE(E11:E12)</f>
+        <v>0.55609700112981975</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I16" s="31" t="str">
+        <v>RF</v>
+      </c>
+      <c r="J16" s="31">
+        <f>AVERAGE(F11:F12)</f>
+        <v>0.79668889083692629</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I17" s="16" t="str">
+        <v>Ensemble</v>
+      </c>
+      <c r="J17" s="16">
+        <f>AVERAGE(G11:G12)</f>
+        <v>0.84958636402258558</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="K18">
+        <f>SQRT([2]!MSWF(B11:G12,1)/COUNT(B11:B12))</f>
+        <v>1.5401393842263165E-2</v>
+      </c>
+      <c r="L18">
+        <f>[2]!dfWF(B11:G12,1)</f>
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <f>[2]!QCRIT(COUNT(J12:J17),L18,P19,2)</f>
+        <v>6.0330000000000004</v>
+      </c>
+      <c r="N18">
+        <f>K18*M18</f>
+        <v>9.2916609050373675E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="9:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I21" s="30" t="str">
+        <f>I12</f>
+        <v>kNN</v>
+      </c>
+      <c r="J21" s="30" t="str">
+        <f>I13</f>
+        <v>SVM</v>
+      </c>
+      <c r="K21" s="30">
+        <f>ABS(J12-J13)</f>
+        <v>0.12855080722625045</v>
+      </c>
+      <c r="L21" s="30">
+        <f>K21/K$18</f>
+        <v>8.3466995612755852</v>
+      </c>
+      <c r="M21" s="30">
+        <f>K21-N$18</f>
+        <v>3.5634198175876777E-2</v>
+      </c>
+      <c r="N21" s="30">
+        <f>K21+N$18</f>
+        <v>0.22146741627662414</v>
+      </c>
+      <c r="O21">
+        <f>[2]!QDIST(L21,COUNT(J$12:J$17),L$18)</f>
+        <v>1.3305549802958727E-2</v>
+      </c>
+      <c r="P21" s="30">
+        <f>L21/SQRT(COUNT(B$11:B$12))</f>
+        <v>5.9020078603047468</v>
+      </c>
+    </row>
+    <row r="22" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I22" s="31" t="str">
+        <f>I12</f>
+        <v>kNN</v>
+      </c>
+      <c r="J22" s="31" t="str">
+        <f>I14</f>
+        <v>LR</v>
+      </c>
+      <c r="K22" s="31">
+        <f>ABS(J12-J14)</f>
+        <v>0.14480654335815446</v>
+      </c>
+      <c r="L22" s="31">
+        <f t="shared" ref="L22:L35" si="0">K22/K$18</f>
+        <v>9.4021713126242474</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" ref="M22:M35" si="1">K22-N$18</f>
+        <v>5.1889934307780786E-2</v>
+      </c>
+      <c r="N22" s="31">
+        <f t="shared" ref="N22:N35" si="2">K22+N$18</f>
+        <v>0.23772315240852815</v>
+      </c>
+      <c r="O22">
+        <f>[2]!QDIST(L22,COUNT(J$12:J$17),L$18)</f>
+        <v>7.8987426167799191E-3</v>
+      </c>
+      <c r="P22" s="31">
+        <f t="shared" ref="P22:P35" si="3">L22/SQRT(COUNT(B$11:B$12))</f>
+        <v>6.6483390930342274</v>
+      </c>
+    </row>
+    <row r="23" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I23" s="31" t="str">
+        <f>I12</f>
+        <v>kNN</v>
+      </c>
+      <c r="J23" s="31" t="str">
+        <f>I15</f>
+        <v>NB</v>
+      </c>
+      <c r="K23" s="31">
+        <f>ABS(J12-J15)</f>
+        <v>0.13785985664246614</v>
+      </c>
+      <c r="L23" s="31">
+        <f t="shared" si="0"/>
+        <v>8.95112858319116</v>
+      </c>
+      <c r="M23" s="31">
+        <f t="shared" si="1"/>
+        <v>4.4943247592092464E-2</v>
+      </c>
+      <c r="N23" s="31">
+        <f t="shared" si="2"/>
+        <v>0.23077646569283983</v>
+      </c>
+      <c r="O23">
+        <f>[2]!QDIST(L23,COUNT(J$12:J$17),L$18)</f>
+        <v>9.8148834669535834E-3</v>
+      </c>
+      <c r="P23" s="31">
+        <f t="shared" si="3"/>
+        <v>6.3294037204472025</v>
+      </c>
+    </row>
+    <row r="24" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I24" s="31" t="str">
+        <f>I12</f>
+        <v>kNN</v>
+      </c>
+      <c r="J24" s="31" t="str">
+        <f>I16</f>
+        <v>RF</v>
+      </c>
+      <c r="K24" s="31">
+        <f>ABS(J12-J16)</f>
+        <v>0.1027320330646404</v>
+      </c>
+      <c r="L24" s="31">
+        <f t="shared" si="0"/>
+        <v>6.6703075135142704</v>
+      </c>
+      <c r="M24" s="31">
+        <f t="shared" si="1"/>
+        <v>9.8154240142667298E-3</v>
+      </c>
+      <c r="N24" s="31">
+        <f t="shared" si="2"/>
+        <v>0.19564864211501409</v>
+      </c>
+      <c r="O24">
+        <f>[2]!QDIST(L24,COUNT(J$12:J$17),L$18)</f>
+        <v>3.3797769751057305E-2</v>
+      </c>
+      <c r="P24" s="31">
+        <f t="shared" si="3"/>
+        <v>4.7166196754055187</v>
+      </c>
+    </row>
+    <row r="25" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I25" s="31" t="str">
+        <f>I12</f>
+        <v>kNN</v>
+      </c>
+      <c r="J25" s="31" t="str">
+        <f>I17</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K25" s="31">
+        <f>ABS(J12-J17)</f>
+        <v>0.1556295062502997</v>
+      </c>
+      <c r="L25" s="31">
+        <f t="shared" si="0"/>
+        <v>10.104897507603159</v>
+      </c>
+      <c r="M25" s="31">
+        <f t="shared" si="1"/>
+        <v>6.2712897199926024E-2</v>
+      </c>
+      <c r="N25" s="31">
+        <f t="shared" si="2"/>
+        <v>0.24854611530067339</v>
+      </c>
+      <c r="O25">
+        <f>[2]!QDIST(L25,COUNT(J$12:J$17),L$18)</f>
+        <v>5.7195677194233907E-3</v>
+      </c>
+      <c r="P25" s="31">
+        <f t="shared" si="3"/>
+        <v>7.1452415508212361</v>
+      </c>
+    </row>
+    <row r="26" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I26" s="31" t="str">
+        <f>I13</f>
+        <v>SVM</v>
+      </c>
+      <c r="J26" s="31" t="str">
+        <f>I14</f>
+        <v>LR</v>
+      </c>
+      <c r="K26" s="31">
+        <f>ABS(J13-J14)</f>
+        <v>1.6255736131904008E-2</v>
+      </c>
+      <c r="L26" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0554717513486624</v>
+      </c>
+      <c r="M26" s="31">
+        <f t="shared" si="1"/>
+        <v>-7.6660872918469666E-2</v>
+      </c>
+      <c r="N26" s="31">
+        <f t="shared" si="2"/>
+        <v>0.10917234518227768</v>
+      </c>
+      <c r="O26">
+        <f>[2]!QDIST(L26,COUNT(J$12:J$17),L$18)</f>
+        <v>0.96618372380680029</v>
+      </c>
+      <c r="P26" s="31">
+        <f t="shared" si="3"/>
+        <v>0.74633123272948065</v>
+      </c>
+    </row>
+    <row r="27" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I27" s="31" t="str">
+        <f>I13</f>
+        <v>SVM</v>
+      </c>
+      <c r="J27" s="31" t="str">
+        <f>I15</f>
+        <v>NB</v>
+      </c>
+      <c r="K27" s="31">
+        <f>ABS(J13-J15)</f>
+        <v>0.26641066386871659</v>
+      </c>
+      <c r="L27" s="31">
+        <f t="shared" si="0"/>
+        <v>17.297828144466745</v>
+      </c>
+      <c r="M27" s="31">
+        <f t="shared" si="1"/>
+        <v>0.1734940548183429</v>
+      </c>
+      <c r="N27" s="31">
+        <f t="shared" si="2"/>
+        <v>0.35932727291909028</v>
+      </c>
+      <c r="O27">
+        <f>[2]!QDIST(L27,COUNT(J$12:J$17),L$18)</f>
+        <v>4.5921510634405749E-4</v>
+      </c>
+      <c r="P27" s="31">
+        <f t="shared" si="3"/>
+        <v>12.231411580751949</v>
+      </c>
+    </row>
+    <row r="28" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I28" s="31" t="str">
+        <f>I13</f>
+        <v>SVM</v>
+      </c>
+      <c r="J28" s="31" t="str">
+        <f>I16</f>
+        <v>RF</v>
+      </c>
+      <c r="K28" s="31">
+        <f>ABS(J13-J16)</f>
+        <v>2.5818774161610047E-2</v>
+      </c>
+      <c r="L28" s="31">
+        <f t="shared" si="0"/>
+        <v>1.6763920477613146</v>
+      </c>
+      <c r="M28" s="31">
+        <f t="shared" si="1"/>
+        <v>-6.7097834888763627E-2</v>
+      </c>
+      <c r="N28" s="31">
+        <f t="shared" si="2"/>
+        <v>0.11873538321198372</v>
+      </c>
+      <c r="O28">
+        <f>[2]!QDIST(L28,COUNT(J$12:J$17),L$18)</f>
+        <v>0.82823267781093701</v>
+      </c>
+      <c r="P28" s="31">
+        <f t="shared" si="3"/>
+        <v>1.185388184899228</v>
+      </c>
+    </row>
+    <row r="29" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I29" s="31" t="str">
+        <f>I13</f>
+        <v>SVM</v>
+      </c>
+      <c r="J29" s="31" t="str">
+        <f>I17</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K29" s="31">
+        <f>ABS(J13-J17)</f>
+        <v>2.7078699024049246E-2</v>
+      </c>
+      <c r="L29" s="31">
+        <f t="shared" si="0"/>
+        <v>1.7581979463275743</v>
+      </c>
+      <c r="M29" s="31">
+        <f t="shared" si="1"/>
+        <v>-6.5837910026324428E-2</v>
+      </c>
+      <c r="N29" s="31">
+        <f t="shared" si="2"/>
+        <v>0.11999530807442292</v>
+      </c>
+      <c r="O29">
+        <f>[2]!QDIST(L29,COUNT(J$12:J$17),L$18)</f>
+        <v>0.80273451561237408</v>
+      </c>
+      <c r="P29" s="31">
+        <f t="shared" si="3"/>
+        <v>1.2432336905164891</v>
+      </c>
+    </row>
+    <row r="30" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I30" s="31" t="str">
+        <f>I14</f>
+        <v>LR</v>
+      </c>
+      <c r="J30" s="31" t="str">
+        <f>I15</f>
+        <v>NB</v>
+      </c>
+      <c r="K30" s="31">
+        <f>ABS(J14-J15)</f>
+        <v>0.2826664000006206</v>
+      </c>
+      <c r="L30" s="31">
+        <f t="shared" si="0"/>
+        <v>18.353299895815407</v>
+      </c>
+      <c r="M30" s="31">
+        <f t="shared" si="1"/>
+        <v>0.18974979095024691</v>
+      </c>
+      <c r="N30" s="31">
+        <f t="shared" si="2"/>
+        <v>0.37558300905099429</v>
+      </c>
+      <c r="O30">
+        <f>[2]!QDIST(L30,COUNT(J$12:J$17),L$18)</f>
+        <v>3.4509082856548634E-4</v>
+      </c>
+      <c r="P30" s="31">
+        <f t="shared" si="3"/>
+        <v>12.977742813481431</v>
+      </c>
+    </row>
+    <row r="31" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I31" s="31" t="str">
+        <f>I14</f>
+        <v>LR</v>
+      </c>
+      <c r="J31" s="31" t="str">
+        <f>I16</f>
+        <v>RF</v>
+      </c>
+      <c r="K31" s="31">
+        <f>ABS(J14-J16)</f>
+        <v>4.2074510293514056E-2</v>
+      </c>
+      <c r="L31" s="31">
+        <f t="shared" si="0"/>
+        <v>2.731863799109977</v>
+      </c>
+      <c r="M31" s="31">
+        <f t="shared" si="1"/>
+        <v>-5.0842098756859619E-2</v>
+      </c>
+      <c r="N31" s="31">
+        <f t="shared" si="2"/>
+        <v>0.13499111934388774</v>
+      </c>
+      <c r="O31">
+        <f>[2]!QDIST(L31,COUNT(J$12:J$17),L$18)</f>
+        <v>0.47614435658485266</v>
+      </c>
+      <c r="P31" s="31">
+        <f t="shared" si="3"/>
+        <v>1.9317194176287089</v>
+      </c>
+    </row>
+    <row r="32" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I32" s="31" t="str">
+        <f>I14</f>
+        <v>LR</v>
+      </c>
+      <c r="J32" s="31" t="str">
+        <f>I17</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K32" s="31">
+        <f>ABS(J14-J17)</f>
+        <v>1.0822962892145238E-2</v>
+      </c>
+      <c r="L32" s="31">
+        <f t="shared" si="0"/>
+        <v>0.70272619497891187</v>
+      </c>
+      <c r="M32" s="31">
+        <f t="shared" si="1"/>
+        <v>-8.2093646158228437E-2</v>
+      </c>
+      <c r="N32" s="31">
+        <f t="shared" si="2"/>
+        <v>0.10373957194251891</v>
+      </c>
+      <c r="O32">
+        <f>[2]!QDIST(L32,COUNT(J$12:J$17),L$18)</f>
+        <v>0.99403659713078962</v>
+      </c>
+      <c r="P32" s="31">
+        <f t="shared" si="3"/>
+        <v>0.49690245778700853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I33" s="31" t="str">
+        <f>I15</f>
+        <v>NB</v>
+      </c>
+      <c r="J33" s="31" t="str">
+        <f>I16</f>
+        <v>RF</v>
+      </c>
+      <c r="K33" s="31">
+        <f>ABS(J15-J16)</f>
+        <v>0.24059188970710654</v>
+      </c>
+      <c r="L33" s="31">
+        <f t="shared" si="0"/>
+        <v>15.62143609670543</v>
+      </c>
+      <c r="M33" s="31">
+        <f t="shared" si="1"/>
+        <v>0.14767528065673285</v>
+      </c>
+      <c r="N33" s="31">
+        <f t="shared" si="2"/>
+        <v>0.33350849875748023</v>
+      </c>
+      <c r="O33">
+        <f>[2]!QDIST(L33,COUNT(J$12:J$17),L$18)</f>
+        <v>7.491657085104686E-4</v>
+      </c>
+      <c r="P33" s="31">
+        <f t="shared" si="3"/>
+        <v>11.046023395852721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I34" s="31" t="str">
+        <f>I15</f>
+        <v>NB</v>
+      </c>
+      <c r="J34" s="31" t="str">
+        <f>I17</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K34" s="31">
+        <f>ABS(J15-J17)</f>
+        <v>0.29348936289276584</v>
+      </c>
+      <c r="L34" s="31">
+        <f t="shared" si="0"/>
+        <v>19.056026090794319</v>
+      </c>
+      <c r="M34" s="31">
+        <f t="shared" si="1"/>
+        <v>0.20057275384239215</v>
+      </c>
+      <c r="N34" s="31">
+        <f t="shared" si="2"/>
+        <v>0.38640597194313953</v>
+      </c>
+      <c r="O34">
+        <f>[2]!QDIST(L34,COUNT(J$12:J$17),L$18)</f>
+        <v>2.8776989592504965E-4</v>
+      </c>
+      <c r="P34" s="31">
+        <f t="shared" si="3"/>
+        <v>13.474645271268438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I35" s="16" t="str">
+        <f>I16</f>
+        <v>RF</v>
+      </c>
+      <c r="J35" s="16" t="str">
+        <f>I17</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K35" s="16">
+        <f>ABS(J16-J17)</f>
+        <v>5.2897473185659294E-2</v>
+      </c>
+      <c r="L35" s="16">
+        <f t="shared" si="0"/>
+        <v>3.4345899940888889</v>
+      </c>
+      <c r="M35" s="16">
+        <f t="shared" si="1"/>
+        <v>-4.0019135864714381E-2</v>
+      </c>
+      <c r="N35" s="16">
+        <f t="shared" si="2"/>
+        <v>0.14581408223603298</v>
+      </c>
+      <c r="O35">
+        <f>[2]!QDIST(L35,COUNT(J$12:J$17),L$18)</f>
+        <v>0.29589980609234112</v>
+      </c>
+      <c r="P35" s="16">
+        <f t="shared" si="3"/>
+        <v>2.4286218754157174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="29">
+        <f t="array" ref="A38:G41">TRANSPOSE(E1:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="B38" t="str">
+        <v>kNN</v>
+      </c>
+      <c r="C38" t="str">
+        <v>SVM</v>
+      </c>
+      <c r="D38" t="str">
+        <v>LR</v>
+      </c>
+      <c r="E38" t="str">
+        <v>NB</v>
+      </c>
+      <c r="F38" t="str">
+        <v>RF</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Ensemble</v>
+      </c>
+      <c r="I38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A39" t="str">
+        <v>/</v>
+      </c>
+      <c r="B39" s="26">
+        <v>0.70123899497494513</v>
+      </c>
+      <c r="C39" s="27">
+        <v>0.81576526833465235</v>
+      </c>
+      <c r="D39" s="27">
+        <v>0.83521328982394716</v>
+      </c>
+      <c r="E39" s="27">
+        <v>0.82280871962023583</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0.8058112044731558</v>
+      </c>
+      <c r="G39" s="28">
+        <v>0.84275335465490131</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" t="str">
+        <v>Chi^2</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0.69398218828719949</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0.82822237007454569</v>
+      </c>
+      <c r="D40" s="31">
+        <v>0.84092057275507348</v>
+      </c>
+      <c r="E40" s="31">
+        <v>0.84548228376922341</v>
+      </c>
+      <c r="F40" s="31">
+        <v>0.81265774675982794</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0.86733924518016214</v>
+      </c>
+      <c r="I40" s="30" t="str">
+        <f t="array" ref="I40:I45">TRANSPOSE(B38:G38)</f>
+        <v>kNN</v>
+      </c>
+      <c r="J40" s="30">
+        <f>AVERAGE(B39:B41)</f>
+        <v>0.69395685777228577</v>
+      </c>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" t="str">
+        <v>Chi^2 + PCA</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0.68664939005471293</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.82353535658641075</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0.84015634081230017</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0.77159772127779558</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0.83866649223269329</v>
+      </c>
+      <c r="I41" s="31" t="str">
+        <v>SVM</v>
+      </c>
+      <c r="J41" s="31">
+        <f>AVERAGE(C39:C41)</f>
+        <v>0.82250766499853623</v>
+      </c>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I42" s="31" t="str">
+        <v>LR</v>
+      </c>
+      <c r="J42" s="31">
+        <f>AVERAGE(D39:D41)</f>
+        <v>0.83876340113044023</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I43" s="31" t="str">
+        <v>NB</v>
+      </c>
+      <c r="J43" s="31">
+        <f>AVERAGE(E39:E41)</f>
+        <v>0.55609700112981975</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I44" s="31" t="str">
+        <v>RF</v>
+      </c>
+      <c r="J44" s="31">
+        <f>AVERAGE(F39:F41)</f>
+        <v>0.79668889083692651</v>
+      </c>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I45" s="16" t="str">
+        <v>Ensemble</v>
+      </c>
+      <c r="J45" s="16">
+        <f>AVERAGE(G39:G41)</f>
+        <v>0.84958636402258547</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="K46">
+        <f>SQRT([2]!MSWF(B39:G41,1)/COUNT(B39:B41))</f>
+        <v>0.11200053448753586</v>
+      </c>
+      <c r="L46">
+        <f>[2]!dfWF(B39:G41,1)</f>
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <f>[2]!QCRIT(COUNT(J40:J45),L46,P47,2)</f>
+        <v>4.9119999999999999</v>
+      </c>
+      <c r="N46">
+        <f>K46*M46</f>
+        <v>0.55014662540277615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I47" t="s">
+        <v>49</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P47">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="I48" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I49" s="30" t="str">
+        <f>I40</f>
+        <v>kNN</v>
+      </c>
+      <c r="J49" s="30" t="str">
+        <f>I41</f>
+        <v>SVM</v>
+      </c>
+      <c r="K49" s="30">
+        <f>ABS(J40-J41)</f>
+        <v>0.12855080722625045</v>
+      </c>
+      <c r="L49" s="30">
+        <f>K49/K$46</f>
+        <v>1.1477695871224294</v>
+      </c>
+      <c r="M49" s="30">
+        <f>K49-N$46</f>
+        <v>-0.42159581817652569</v>
+      </c>
+      <c r="N49" s="30">
+        <f>K49+N$46</f>
+        <v>0.6786974326290266</v>
+      </c>
+      <c r="O49">
+        <f>[2]!QDIST(L49,COUNT(J$40:J$45),L$46)</f>
+        <v>0.95875217142711311</v>
+      </c>
+      <c r="P49" s="30">
+        <f>L49/SQRT(COUNT(B$39:B$41))</f>
+        <v>0.66266508009280023</v>
+      </c>
+    </row>
+    <row r="50" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I50" s="31" t="str">
+        <f>I40</f>
+        <v>kNN</v>
+      </c>
+      <c r="J50" s="31" t="str">
+        <f>I42</f>
+        <v>LR</v>
+      </c>
+      <c r="K50" s="31">
+        <f>ABS(J40-J42)</f>
+        <v>0.14480654335815446</v>
+      </c>
+      <c r="L50" s="31">
+        <f t="shared" ref="L50:L63" si="4">K50/K$46</f>
+        <v>1.2929093956624775</v>
+      </c>
+      <c r="M50" s="31">
+        <f t="shared" ref="M50:M63" si="5">K50-N$46</f>
+        <v>-0.40534008204462169</v>
+      </c>
+      <c r="N50" s="31">
+        <f t="shared" ref="N50:N63" si="6">K50+N$46</f>
+        <v>0.69495316876093061</v>
+      </c>
+      <c r="O50">
+        <f>[2]!QDIST(L50,COUNT(J$40:J$45),L$46)</f>
+        <v>0.93404237258311473</v>
+      </c>
+      <c r="P50" s="31">
+        <f t="shared" ref="P50:P63" si="7">L50/SQRT(COUNT(B$39:B$41))</f>
+        <v>0.74646158762352777</v>
+      </c>
+    </row>
+    <row r="51" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I51" s="31" t="str">
+        <f>I40</f>
+        <v>kNN</v>
+      </c>
+      <c r="J51" s="31" t="str">
+        <f>I43</f>
+        <v>NB</v>
+      </c>
+      <c r="K51" s="31">
+        <f>ABS(J40-J43)</f>
+        <v>0.13785985664246603</v>
+      </c>
+      <c r="L51" s="31">
+        <f t="shared" si="4"/>
+        <v>1.2308857031196396</v>
+      </c>
+      <c r="M51" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.41228676876031012</v>
+      </c>
+      <c r="N51" s="31">
+        <f t="shared" si="6"/>
+        <v>0.68800648204524217</v>
+      </c>
+      <c r="O51">
+        <f>[2]!QDIST(L51,COUNT(J$40:J$45),L$46)</f>
+        <v>0.94549326042591308</v>
+      </c>
+      <c r="P51" s="31">
+        <f t="shared" si="7"/>
+        <v>0.71065219203778573</v>
+      </c>
+    </row>
+    <row r="52" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I52" s="31" t="str">
+        <f>I40</f>
+        <v>kNN</v>
+      </c>
+      <c r="J52" s="31" t="str">
+        <f>I44</f>
+        <v>RF</v>
+      </c>
+      <c r="K52" s="31">
+        <f>ABS(J40-J44)</f>
+        <v>0.10273203306464074</v>
+      </c>
+      <c r="L52" s="31">
+        <f t="shared" si="4"/>
+        <v>0.91724591792973476</v>
+      </c>
+      <c r="M52" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.44741459233813541</v>
+      </c>
+      <c r="N52" s="31">
+        <f t="shared" si="6"/>
+        <v>0.65287865846741688</v>
+      </c>
+      <c r="O52">
+        <f>[2]!QDIST(L52,COUNT(J$40:J$45),L$46)</f>
+        <v>0.98395976382326944</v>
+      </c>
+      <c r="P52" s="31">
+        <f t="shared" si="7"/>
+        <v>0.52957217762981779</v>
+      </c>
+    </row>
+    <row r="53" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I53" s="31" t="str">
+        <f>I40</f>
+        <v>kNN</v>
+      </c>
+      <c r="J53" s="31" t="str">
+        <f>I45</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K53" s="31">
+        <f>ABS(J40-J45)</f>
+        <v>0.1556295062502997</v>
+      </c>
+      <c r="L53" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3895425317601422</v>
+      </c>
+      <c r="M53" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.39451711915247645</v>
+      </c>
+      <c r="N53" s="31">
+        <f t="shared" si="6"/>
+        <v>0.70577613165307584</v>
+      </c>
+      <c r="O53">
+        <f>[2]!QDIST(L53,COUNT(J$40:J$45),L$46)</f>
+        <v>0.91351599200798395</v>
+      </c>
+      <c r="P53" s="31">
+        <f t="shared" si="7"/>
+        <v>0.8022527547621523</v>
+      </c>
+    </row>
+    <row r="54" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I54" s="31" t="str">
+        <f>I41</f>
+        <v>SVM</v>
+      </c>
+      <c r="J54" s="31" t="str">
+        <f>I42</f>
+        <v>LR</v>
+      </c>
+      <c r="K54" s="31">
+        <f>ABS(J41-J42)</f>
+        <v>1.6255736131904008E-2</v>
+      </c>
+      <c r="L54" s="31">
+        <f t="shared" si="4"/>
+        <v>0.1451398085400481</v>
+      </c>
+      <c r="M54" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.53389088927087214</v>
+      </c>
+      <c r="N54" s="31">
+        <f t="shared" si="6"/>
+        <v>0.56640236153468015</v>
+      </c>
+      <c r="O54">
+        <f>[2]!QDIST(L54,COUNT(J$40:J$45),L$46)</f>
+        <v>0.99999779581574411</v>
+      </c>
+      <c r="P54" s="31">
+        <f t="shared" si="7"/>
+        <v>8.3796507530727524E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I55" s="31" t="str">
+        <f>I41</f>
+        <v>SVM</v>
+      </c>
+      <c r="J55" s="31" t="str">
+        <f>I43</f>
+        <v>NB</v>
+      </c>
+      <c r="K55" s="31">
+        <f>ABS(J41-J43)</f>
+        <v>0.26641066386871648</v>
+      </c>
+      <c r="L55" s="31">
+        <f t="shared" si="4"/>
+        <v>2.3786552902420692</v>
+      </c>
+      <c r="M55" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.28373596153405967</v>
+      </c>
+      <c r="N55" s="31">
+        <f t="shared" si="6"/>
+        <v>0.81655728927149263</v>
+      </c>
+      <c r="O55">
+        <f>[2]!QDIST(L55,COUNT(J$40:J$45),L$46)</f>
+        <v>0.57031545637009151</v>
+      </c>
+      <c r="P55" s="31">
+        <f t="shared" si="7"/>
+        <v>1.3733172721305862</v>
+      </c>
+    </row>
+    <row r="56" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I56" s="31" t="str">
+        <f>I41</f>
+        <v>SVM</v>
+      </c>
+      <c r="J56" s="31" t="str">
+        <f>I44</f>
+        <v>RF</v>
+      </c>
+      <c r="K56" s="31">
+        <f>ABS(J41-J44)</f>
+        <v>2.5818774161609714E-2</v>
+      </c>
+      <c r="L56" s="31">
+        <f t="shared" si="4"/>
+        <v>0.23052366919269474</v>
+      </c>
+      <c r="M56" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.52432785124116643</v>
+      </c>
+      <c r="N56" s="31">
+        <f t="shared" si="6"/>
+        <v>0.57596539956438586</v>
+      </c>
+      <c r="O56">
+        <f>[2]!QDIST(L56,COUNT(J$40:J$45),L$46)</f>
+        <v>0.99997801567792532</v>
+      </c>
+      <c r="P56" s="31">
+        <f t="shared" si="7"/>
+        <v>0.13309290246298255</v>
+      </c>
+    </row>
+    <row r="57" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I57" s="31" t="str">
+        <f>I41</f>
+        <v>SVM</v>
+      </c>
+      <c r="J57" s="31" t="str">
+        <f>I45</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K57" s="31">
+        <f>ABS(J41-J45)</f>
+        <v>2.7078699024049246E-2</v>
+      </c>
+      <c r="L57" s="31">
+        <f t="shared" si="4"/>
+        <v>0.24177294463771276</v>
+      </c>
+      <c r="M57" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.5230679263787269</v>
+      </c>
+      <c r="N57" s="31">
+        <f t="shared" si="6"/>
+        <v>0.57722532442682539</v>
+      </c>
+      <c r="O57">
+        <f>[2]!QDIST(L57,COUNT(J$40:J$45),L$46)</f>
+        <v>0.99997216324227134</v>
+      </c>
+      <c r="P57" s="31">
+        <f t="shared" si="7"/>
+        <v>0.13958767466935196</v>
+      </c>
+    </row>
+    <row r="58" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I58" s="31" t="str">
+        <f>I42</f>
+        <v>LR</v>
+      </c>
+      <c r="J58" s="31" t="str">
+        <f>I43</f>
+        <v>NB</v>
+      </c>
+      <c r="K58" s="31">
+        <f>ABS(J42-J43)</f>
+        <v>0.28266640000062049</v>
+      </c>
+      <c r="L58" s="31">
+        <f t="shared" si="4"/>
+        <v>2.5237950987821174</v>
+      </c>
+      <c r="M58" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.26748022540215566</v>
+      </c>
+      <c r="N58" s="31">
+        <f t="shared" si="6"/>
+        <v>0.83281302540339663</v>
+      </c>
+      <c r="O58">
+        <f>[2]!QDIST(L58,COUNT(J$40:J$45),L$46)</f>
+        <v>0.51409725174010479</v>
+      </c>
+      <c r="P58" s="31">
+        <f t="shared" si="7"/>
+        <v>1.4571137796613136</v>
+      </c>
+    </row>
+    <row r="59" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I59" s="31" t="str">
+        <f>I42</f>
+        <v>LR</v>
+      </c>
+      <c r="J59" s="31" t="str">
+        <f>I44</f>
+        <v>RF</v>
+      </c>
+      <c r="K59" s="31">
+        <f>ABS(J42-J44)</f>
+        <v>4.2074510293513723E-2</v>
+      </c>
+      <c r="L59" s="31">
+        <f t="shared" si="4"/>
+        <v>0.37566347773274283</v>
+      </c>
+      <c r="M59" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.50807211510926242</v>
+      </c>
+      <c r="N59" s="31">
+        <f t="shared" si="6"/>
+        <v>0.59222113569628987</v>
+      </c>
+      <c r="O59">
+        <f>[2]!QDIST(L59,COUNT(J$40:J$45),L$46)</f>
+        <v>0.99975633978954348</v>
+      </c>
+      <c r="P59" s="31">
+        <f t="shared" si="7"/>
+        <v>0.21688940999371006</v>
+      </c>
+    </row>
+    <row r="60" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I60" s="31" t="str">
+        <f>I42</f>
+        <v>LR</v>
+      </c>
+      <c r="J60" s="31" t="str">
+        <f>I45</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K60" s="31">
+        <f>ABS(J42-J45)</f>
+        <v>1.0822962892145238E-2</v>
+      </c>
+      <c r="L60" s="31">
+        <f t="shared" si="4"/>
+        <v>9.6633136097664676E-2</v>
+      </c>
+      <c r="M60" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.53932366251063091</v>
+      </c>
+      <c r="N60" s="31">
+        <f t="shared" si="6"/>
+        <v>0.56096958829492138</v>
+      </c>
+      <c r="O60">
+        <f>[2]!QDIST(L60,COUNT(J$40:J$45),L$46)</f>
+        <v>0.99999971022292256</v>
+      </c>
+      <c r="P60" s="31">
+        <f t="shared" si="7"/>
+        <v>5.5791167138624448E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I61" s="31" t="str">
+        <f>I43</f>
+        <v>NB</v>
+      </c>
+      <c r="J61" s="31" t="str">
+        <f>I44</f>
+        <v>RF</v>
+      </c>
+      <c r="K61" s="31">
+        <f>ABS(J43-J44)</f>
+        <v>0.24059188970710677</v>
+      </c>
+      <c r="L61" s="31">
+        <f t="shared" si="4"/>
+        <v>2.1481316210493744</v>
+      </c>
+      <c r="M61" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.30955473569566938</v>
+      </c>
+      <c r="N61" s="31">
+        <f t="shared" si="6"/>
+        <v>0.79073851510988291</v>
+      </c>
+      <c r="O61">
+        <f>[2]!QDIST(L61,COUNT(J$40:J$45),L$46)</f>
+        <v>0.66149736041887341</v>
+      </c>
+      <c r="P61" s="31">
+        <f t="shared" si="7"/>
+        <v>1.2402243696676036</v>
+      </c>
+    </row>
+    <row r="62" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I62" s="31" t="str">
+        <f>I43</f>
+        <v>NB</v>
+      </c>
+      <c r="J62" s="31" t="str">
+        <f>I45</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K62" s="31">
+        <f>ABS(J43-J45)</f>
+        <v>0.29348936289276573</v>
+      </c>
+      <c r="L62" s="31">
+        <f t="shared" si="4"/>
+        <v>2.6204282348797818</v>
+      </c>
+      <c r="M62" s="31">
+        <f t="shared" si="5"/>
+        <v>-0.25665726251001042</v>
+      </c>
+      <c r="N62" s="31">
+        <f t="shared" si="6"/>
+        <v>0.84363598829554187</v>
+      </c>
+      <c r="O62">
+        <f>[2]!QDIST(L62,COUNT(J$40:J$45),L$46)</f>
+        <v>0.47782760781921962</v>
+      </c>
+      <c r="P62" s="31">
+        <f t="shared" si="7"/>
+        <v>1.512904946799938</v>
+      </c>
+    </row>
+    <row r="63" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I63" s="16" t="str">
+        <f>I44</f>
+        <v>RF</v>
+      </c>
+      <c r="J63" s="16" t="str">
+        <f>I45</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K63" s="16">
+        <f>ABS(J44-J45)</f>
+        <v>5.2897473185658961E-2</v>
+      </c>
+      <c r="L63" s="16">
+        <f t="shared" si="4"/>
+        <v>0.4722966138304075</v>
+      </c>
+      <c r="M63" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.49724915221711719</v>
+      </c>
+      <c r="N63" s="16">
+        <f t="shared" si="6"/>
+        <v>0.60304409858843511</v>
+      </c>
+      <c r="O63">
+        <f>[2]!QDIST(L63,COUNT(J$40:J$45),L$46)</f>
+        <v>0.99925981684606169</v>
+      </c>
+      <c r="P63" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27268057713233451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="29">
+        <f t="array" ref="A66:G72">TRANSPOSE(J1:P7)</f>
+        <v>0</v>
+      </c>
+      <c r="B66" t="str">
+        <v>kNN</v>
+      </c>
+      <c r="C66" t="str">
+        <v>SVM</v>
+      </c>
+      <c r="D66" t="str">
+        <v>LR</v>
+      </c>
+      <c r="E66" t="str">
+        <v>NB</v>
+      </c>
+      <c r="F66" t="str">
+        <v>RF</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Ensemble</v>
+      </c>
+      <c r="I66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A67" t="str">
+        <v>BoW + /</v>
+      </c>
+      <c r="B67" s="26">
+        <v>0.61091025018216327</v>
+      </c>
+      <c r="C67" s="27">
+        <v>0.80081341541129736</v>
+      </c>
+      <c r="D67" s="27">
+        <v>0.84074442175686115</v>
+      </c>
+      <c r="E67" s="27">
+        <v>0.81302342332761257</v>
+      </c>
+      <c r="F67" s="27">
+        <v>0.79929554214048315</v>
+      </c>
+      <c r="G67" s="28">
+        <v>0.84194133574598207</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A68" t="str">
+        <v>BoW + Chi^2</v>
+      </c>
+      <c r="B68" s="10">
+        <v>0.67708654294252502</v>
+      </c>
+      <c r="C68" s="31">
+        <v>0.80893053731024478</v>
+      </c>
+      <c r="D68" s="31">
+        <v>0.84520300916564428</v>
+      </c>
+      <c r="E68" s="31">
+        <v>0.84593023281619217</v>
+      </c>
+      <c r="F68" s="31">
+        <v>0.8166684721988402</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0.85960243250523105</v>
+      </c>
+      <c r="I68" s="30" t="str">
+        <f t="array" ref="I68:I73">TRANSPOSE(B66:G66)</f>
+        <v>kNN</v>
+      </c>
+      <c r="J68" s="30">
+        <f>AVERAGE(B67:B72)</f>
+        <v>0.693956857772286</v>
+      </c>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A69" t="str">
+        <v>BoW + Chi^2 + PCA</v>
+      </c>
+      <c r="B69" s="10">
+        <v>0.67549918183695445</v>
+      </c>
+      <c r="C69" s="31">
+        <v>0.79932436198669954</v>
+      </c>
+      <c r="D69" s="31">
+        <v>0.84134004010855024</v>
+      </c>
+      <c r="E69" s="31">
+        <v>0</v>
+      </c>
+      <c r="F69" s="31">
+        <v>0.7266662225643733</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0.83161398431726785</v>
+      </c>
+      <c r="I69" s="31" t="str">
+        <v>SVM</v>
+      </c>
+      <c r="J69" s="31">
+        <f>AVERAGE(C67:C72)</f>
+        <v>0.82250766499853623</v>
+      </c>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A70" t="str">
+        <v>BoW + /</v>
+      </c>
+      <c r="B70" s="10">
+        <v>0.79156773976772699</v>
+      </c>
+      <c r="C70" s="31">
+        <v>0.83071712125800745</v>
+      </c>
+      <c r="D70" s="31">
+        <v>0.82968215789103295</v>
+      </c>
+      <c r="E70" s="31">
+        <v>0.8325940159128592</v>
+      </c>
+      <c r="F70" s="31">
+        <v>0.81232686680582877</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0.84356537356382066</v>
+      </c>
+      <c r="I70" s="31" t="str">
+        <v>LR</v>
+      </c>
+      <c r="J70" s="31">
+        <f>AVERAGE(D67:D72)</f>
+        <v>0.83876340113044012</v>
+      </c>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A71" t="str">
+        <v>BoW + Chi^2</v>
+      </c>
+      <c r="B71" s="10">
+        <v>0.71087783363187418</v>
+      </c>
+      <c r="C71" s="31">
+        <v>0.84751420283884649</v>
+      </c>
+      <c r="D71" s="31">
+        <v>0.8366381363445029</v>
+      </c>
+      <c r="E71" s="31">
+        <v>0.84503433472225464</v>
+      </c>
+      <c r="F71" s="31">
+        <v>0.80864702132081556</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0.87507605785509368</v>
+      </c>
+      <c r="I71" s="31" t="str">
+        <v>NB</v>
+      </c>
+      <c r="J71" s="31">
+        <f>AVERAGE(E67:E72)</f>
+        <v>0.55609700112981975</v>
+      </c>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A72" t="str">
+        <v>BoW + Chi^2 + PCA</v>
+      </c>
+      <c r="B72" s="12">
+        <v>0.69779959827247151</v>
+      </c>
+      <c r="C72" s="13">
+        <v>0.84774635118612207</v>
+      </c>
+      <c r="D72" s="13">
+        <v>0.83897264151605033</v>
+      </c>
+      <c r="E72" s="13">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
+        <v>0.81652921999121764</v>
+      </c>
+      <c r="G72" s="14">
+        <v>0.84571900014811874</v>
+      </c>
+      <c r="I72" s="31" t="str">
+        <v>RF</v>
+      </c>
+      <c r="J72" s="31">
+        <f>AVERAGE(F67:F72)</f>
+        <v>0.79668889083692651</v>
+      </c>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I73" s="16" t="str">
+        <v>Ensemble</v>
+      </c>
+      <c r="J73" s="16">
+        <f>AVERAGE(G67:G72)</f>
+        <v>0.84958636402258569</v>
+      </c>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="K74">
+        <f>SQRT([2]!MSWF(B67:G72,1)/COUNT(B67:B72))</f>
+        <v>7.1618316228121523E-2</v>
+      </c>
+      <c r="L74">
+        <f>[2]!dfWF(B67:G72,1)</f>
+        <v>25</v>
+      </c>
+      <c r="M74">
+        <f>[2]!QCRIT(COUNT(J68:J73),L74,P75,2)</f>
+        <v>4.3579999999999997</v>
+      </c>
+      <c r="N74">
+        <f>K74*M74</f>
+        <v>0.31211262212215357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I75" t="s">
+        <v>49</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P75">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="I76" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L76" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M76" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N76" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O76" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I77" s="30" t="str">
+        <f>I68</f>
+        <v>kNN</v>
+      </c>
+      <c r="J77" s="30" t="str">
+        <f>I69</f>
+        <v>SVM</v>
+      </c>
+      <c r="K77" s="30">
+        <f>ABS(J68-J69)</f>
+        <v>0.12855080722625023</v>
+      </c>
+      <c r="L77" s="30">
+        <f>K77/K$74</f>
+        <v>1.794943165331967</v>
+      </c>
+      <c r="M77" s="30">
+        <f>K77-N$74</f>
+        <v>-0.18356181489590334</v>
+      </c>
+      <c r="N77" s="30">
+        <f>K77+N$74</f>
+        <v>0.4406634293484038</v>
+      </c>
+      <c r="O77">
+        <f>[2]!QDIST(L77,COUNT(J$68:J$73),L$74)</f>
+        <v>0.79838714769293451</v>
+      </c>
+      <c r="P77" s="30">
+        <f>L77/SQRT(COUNT(B$67:B$72))</f>
+        <v>0.73278247872657065</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I78" s="31" t="str">
+        <f>I68</f>
+        <v>kNN</v>
+      </c>
+      <c r="J78" s="31" t="str">
+        <f>I70</f>
+        <v>LR</v>
+      </c>
+      <c r="K78" s="31">
+        <f>ABS(J68-J70)</f>
+        <v>0.14480654335815413</v>
+      </c>
+      <c r="L78" s="31">
+        <f t="shared" ref="L78:L91" si="8">K78/K$74</f>
+        <v>2.0219205223550709</v>
+      </c>
+      <c r="M78" s="31">
+        <f t="shared" ref="M78:M91" si="9">K78-N$74</f>
+        <v>-0.16730607876399944</v>
+      </c>
+      <c r="N78" s="31">
+        <f t="shared" ref="N78:N91" si="10">K78+N$74</f>
+        <v>0.4569191654803077</v>
+      </c>
+      <c r="O78">
+        <f>[2]!QDIST(L78,COUNT(J$68:J$73),L$74)</f>
+        <v>0.70934606365987785</v>
+      </c>
+      <c r="P78" s="31">
+        <f t="shared" ref="P78:P91" si="11">L78/SQRT(COUNT(B$67:B$72))</f>
+        <v>0.82544559670525874</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I79" s="31" t="str">
+        <f>I68</f>
+        <v>kNN</v>
+      </c>
+      <c r="J79" s="31" t="str">
+        <f>I71</f>
+        <v>NB</v>
+      </c>
+      <c r="K79" s="31">
+        <f>ABS(J68-J71)</f>
+        <v>0.13785985664246625</v>
+      </c>
+      <c r="L79" s="31">
+        <f t="shared" si="8"/>
+        <v>1.9249245710182508</v>
+      </c>
+      <c r="M79" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.17425276547968732</v>
+      </c>
+      <c r="N79" s="31">
+        <f t="shared" si="10"/>
+        <v>0.44997247876461982</v>
+      </c>
+      <c r="O79">
+        <f>[2]!QDIST(L79,COUNT(J$68:J$73),L$74)</f>
+        <v>0.74878181306736613</v>
+      </c>
+      <c r="P79" s="31">
+        <f t="shared" si="11"/>
+        <v>0.78584716539008581</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="I80" s="31" t="str">
+        <f>I68</f>
+        <v>kNN</v>
+      </c>
+      <c r="J80" s="31" t="str">
+        <f>I72</f>
+        <v>RF</v>
+      </c>
+      <c r="K80" s="31">
+        <f>ABS(J68-J72)</f>
+        <v>0.10273203306464052</v>
+      </c>
+      <c r="L80" s="31">
+        <f t="shared" si="8"/>
+        <v>1.4344379828396738</v>
+      </c>
+      <c r="M80" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.20938058905751306</v>
+      </c>
+      <c r="N80" s="31">
+        <f t="shared" si="10"/>
+        <v>0.41484465518679409</v>
+      </c>
+      <c r="O80">
+        <f>[2]!QDIST(L80,COUNT(J$68:J$73),L$74)</f>
+        <v>0.90876638947996846</v>
+      </c>
+      <c r="P80" s="31">
+        <f t="shared" si="11"/>
+        <v>0.585606854270729</v>
+      </c>
+    </row>
+    <row r="81" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I81" s="31" t="str">
+        <f>I68</f>
+        <v>kNN</v>
+      </c>
+      <c r="J81" s="31" t="str">
+        <f>I73</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K81" s="31">
+        <f>ABS(J68-J73)</f>
+        <v>0.1556295062502997</v>
+      </c>
+      <c r="L81" s="31">
+        <f t="shared" si="8"/>
+        <v>2.1730405634584087</v>
+      </c>
+      <c r="M81" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.15648311587185387</v>
+      </c>
+      <c r="N81" s="31">
+        <f t="shared" si="10"/>
+        <v>0.46774212837245327</v>
+      </c>
+      <c r="O81">
+        <f>[2]!QDIST(L81,COUNT(J$68:J$73),L$74)</f>
+        <v>0.64510573009004535</v>
+      </c>
+      <c r="P81" s="31">
+        <f t="shared" si="11"/>
+        <v>0.88714009514052505</v>
+      </c>
+    </row>
+    <row r="82" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I82" s="31" t="str">
+        <f>I69</f>
+        <v>SVM</v>
+      </c>
+      <c r="J82" s="31" t="str">
+        <f>I70</f>
+        <v>LR</v>
+      </c>
+      <c r="K82" s="31">
+        <f>ABS(J69-J70)</f>
+        <v>1.6255736131903897E-2</v>
+      </c>
+      <c r="L82" s="31">
+        <f t="shared" si="8"/>
+        <v>0.22697735702310393</v>
+      </c>
+      <c r="M82" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.29585688599024967</v>
+      </c>
+      <c r="N82" s="31">
+        <f t="shared" si="10"/>
+        <v>0.32836835825405747</v>
+      </c>
+      <c r="O82">
+        <f>[2]!QDIST(L82,COUNT(J$68:J$73),L$74)</f>
+        <v>0.9999830954783212</v>
+      </c>
+      <c r="P82" s="31">
+        <f t="shared" si="11"/>
+        <v>9.2663117978688078E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I83" s="31" t="str">
+        <f>I69</f>
+        <v>SVM</v>
+      </c>
+      <c r="J83" s="31" t="str">
+        <f>I71</f>
+        <v>NB</v>
+      </c>
+      <c r="K83" s="31">
+        <f>ABS(J69-J71)</f>
+        <v>0.26641066386871648</v>
+      </c>
+      <c r="L83" s="31">
+        <f t="shared" si="8"/>
+        <v>3.7198677363502179</v>
+      </c>
+      <c r="M83" s="31">
+        <f t="shared" si="9"/>
+        <v>-4.5701958253437092E-2</v>
+      </c>
+      <c r="N83" s="31">
+        <f t="shared" si="10"/>
+        <v>0.57852328599087</v>
+      </c>
+      <c r="O83">
+        <f>[2]!QDIST(L83,COUNT(J$68:J$73),L$74)</f>
+        <v>0.1267899853259945</v>
+      </c>
+      <c r="P83" s="31">
+        <f t="shared" si="11"/>
+        <v>1.5186296441166565</v>
+      </c>
+    </row>
+    <row r="84" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I84" s="31" t="str">
+        <f>I69</f>
+        <v>SVM</v>
+      </c>
+      <c r="J84" s="31" t="str">
+        <f>I72</f>
+        <v>RF</v>
+      </c>
+      <c r="K84" s="31">
+        <f>ABS(J69-J72)</f>
+        <v>2.5818774161609714E-2</v>
+      </c>
+      <c r="L84" s="31">
+        <f t="shared" si="8"/>
+        <v>0.36050518249229324</v>
+      </c>
+      <c r="M84" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.28629384796054386</v>
+      </c>
+      <c r="N84" s="31">
+        <f t="shared" si="10"/>
+        <v>0.33793139628376329</v>
+      </c>
+      <c r="O84">
+        <f>[2]!QDIST(L84,COUNT(J$68:J$73),L$74)</f>
+        <v>0.99983352078795029</v>
+      </c>
+      <c r="P84" s="31">
+        <f t="shared" si="11"/>
+        <v>0.14717562445584167</v>
+      </c>
+    </row>
+    <row r="85" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I85" s="31" t="str">
+        <f>I69</f>
+        <v>SVM</v>
+      </c>
+      <c r="J85" s="31" t="str">
+        <f>I73</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K85" s="31">
+        <f>ABS(J69-J73)</f>
+        <v>2.7078699024049468E-2</v>
+      </c>
+      <c r="L85" s="31">
+        <f t="shared" si="8"/>
+        <v>0.37809739812644177</v>
+      </c>
+      <c r="M85" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.2850339230981041</v>
+      </c>
+      <c r="N85" s="31">
+        <f t="shared" si="10"/>
+        <v>0.33919132114620304</v>
+      </c>
+      <c r="O85">
+        <f>[2]!QDIST(L85,COUNT(J$68:J$73),L$74)</f>
+        <v>0.99978964305256368</v>
+      </c>
+      <c r="P85" s="31">
+        <f t="shared" si="11"/>
+        <v>0.15435761641395448</v>
+      </c>
+    </row>
+    <row r="86" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I86" s="31" t="str">
+        <f>I70</f>
+        <v>LR</v>
+      </c>
+      <c r="J86" s="31" t="str">
+        <f>I71</f>
+        <v>NB</v>
+      </c>
+      <c r="K86" s="31">
+        <f>ABS(J70-J71)</f>
+        <v>0.28266640000062038</v>
+      </c>
+      <c r="L86" s="31">
+        <f t="shared" si="8"/>
+        <v>3.9468450933733217</v>
+      </c>
+      <c r="M86" s="31">
+        <f t="shared" si="9"/>
+        <v>-2.9446222121533194E-2</v>
+      </c>
+      <c r="N86" s="31">
+        <f t="shared" si="10"/>
+        <v>0.594779022122774</v>
+      </c>
+      <c r="O86">
+        <f>[2]!QDIST(L86,COUNT(J$68:J$73),L$74)</f>
+        <v>9.2246322471693287E-2</v>
+      </c>
+      <c r="P86" s="31">
+        <f t="shared" si="11"/>
+        <v>1.6112927620953446</v>
+      </c>
+    </row>
+    <row r="87" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I87" s="31" t="str">
+        <f>I70</f>
+        <v>LR</v>
+      </c>
+      <c r="J87" s="31" t="str">
+        <f>I72</f>
+        <v>RF</v>
+      </c>
+      <c r="K87" s="31">
+        <f>ABS(J70-J72)</f>
+        <v>4.2074510293513612E-2</v>
+      </c>
+      <c r="L87" s="31">
+        <f t="shared" si="8"/>
+        <v>0.5874825395153972</v>
+      </c>
+      <c r="M87" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.27003811182863996</v>
+      </c>
+      <c r="N87" s="31">
+        <f t="shared" si="10"/>
+        <v>0.35418713241566718</v>
+      </c>
+      <c r="O87">
+        <f>[2]!QDIST(L87,COUNT(J$68:J$73),L$74)</f>
+        <v>0.99821715006062162</v>
+      </c>
+      <c r="P87" s="31">
+        <f t="shared" si="11"/>
+        <v>0.23983874243452977</v>
+      </c>
+    </row>
+    <row r="88" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I88" s="31" t="str">
+        <f>I70</f>
+        <v>LR</v>
+      </c>
+      <c r="J88" s="31" t="str">
+        <f>I73</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K88" s="31">
+        <f>ABS(J70-J73)</f>
+        <v>1.0822962892145571E-2</v>
+      </c>
+      <c r="L88" s="31">
+        <f t="shared" si="8"/>
+        <v>0.15112004110333782</v>
+      </c>
+      <c r="M88" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.301289659230008</v>
+      </c>
+      <c r="N88" s="31">
+        <f t="shared" si="10"/>
+        <v>0.32293558501429914</v>
+      </c>
+      <c r="O88">
+        <f>[2]!QDIST(L88,COUNT(J$68:J$73),L$74)</f>
+        <v>0.99999776723855482</v>
+      </c>
+      <c r="P88" s="31">
+        <f t="shared" si="11"/>
+        <v>6.1694498435266379E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I89" s="31" t="str">
+        <f>I71</f>
+        <v>NB</v>
+      </c>
+      <c r="J89" s="31" t="str">
+        <f>I72</f>
+        <v>RF</v>
+      </c>
+      <c r="K89" s="31">
+        <f>ABS(J71-J72)</f>
+        <v>0.24059188970710677</v>
+      </c>
+      <c r="L89" s="31">
+        <f t="shared" si="8"/>
+        <v>3.3593625538579248</v>
+      </c>
+      <c r="M89" s="31">
+        <f t="shared" si="9"/>
+        <v>-7.1520732415046806E-2</v>
+      </c>
+      <c r="N89" s="31">
+        <f t="shared" si="10"/>
+        <v>0.55270451182926039</v>
+      </c>
+      <c r="O89">
+        <f>[2]!QDIST(L89,COUNT(J$68:J$73),L$74)</f>
+        <v>0.2030024056437072</v>
+      </c>
+      <c r="P89" s="31">
+        <f t="shared" si="11"/>
+        <v>1.3714540196608149</v>
+      </c>
+    </row>
+    <row r="90" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I90" s="31" t="str">
+        <f>I71</f>
+        <v>NB</v>
+      </c>
+      <c r="J90" s="31" t="str">
+        <f>I73</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K90" s="31">
+        <f>ABS(J71-J73)</f>
+        <v>0.29348936289276595</v>
+      </c>
+      <c r="L90" s="31">
+        <f t="shared" si="8"/>
+        <v>4.0979651344766594</v>
+      </c>
+      <c r="M90" s="31">
+        <f t="shared" si="9"/>
+        <v>-1.8623259229387623E-2</v>
+      </c>
+      <c r="N90" s="31">
+        <f t="shared" si="10"/>
+        <v>0.60560198501491946</v>
+      </c>
+      <c r="O90">
+        <f>[2]!QDIST(L90,COUNT(J$68:J$73),L$74)</f>
+        <v>7.403388532721189E-2</v>
+      </c>
+      <c r="P90" s="31">
+        <f t="shared" si="11"/>
+        <v>1.6729872605306109</v>
+      </c>
+    </row>
+    <row r="91" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I91" s="16" t="str">
+        <f>I72</f>
+        <v>RF</v>
+      </c>
+      <c r="J91" s="16" t="str">
+        <f>I73</f>
+        <v>Ensemble</v>
+      </c>
+      <c r="K91" s="16">
+        <f>ABS(J72-J73)</f>
+        <v>5.2897473185659183E-2</v>
+      </c>
+      <c r="L91" s="16">
+        <f t="shared" si="8"/>
+        <v>0.73860258061873496</v>
+      </c>
+      <c r="M91" s="16">
+        <f t="shared" si="9"/>
+        <v>-0.25921514893649439</v>
+      </c>
+      <c r="N91" s="16">
+        <f t="shared" si="10"/>
+        <v>0.36501009530781275</v>
+      </c>
+      <c r="O91">
+        <f>[2]!QDIST(L91,COUNT(J$68:J$73),L$74)</f>
+        <v>0.99475162530320982</v>
+      </c>
+      <c r="P91" s="16">
+        <f t="shared" si="11"/>
+        <v>0.30153324086979616</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="O21:O35">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O49:O63">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O77:O91">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
